--- a/windows/ProcessInjectionAndDetection.xlsx
+++ b/windows/ProcessInjectionAndDetection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="10485" activeTab="2"/>
+    <workbookView windowWidth="24030" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="检测能力表" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="242">
   <si>
     <t>进程注入/检测维度</t>
   </si>
@@ -330,6 +330,228 @@
   </si>
   <si>
     <t>Remote Threat Context set 攻击</t>
+  </si>
+  <si>
+    <t>ProcessOverwriting</t>
+  </si>
+  <si>
+    <t>run_pe</t>
+  </si>
+  <si>
+    <r>
+      <t>DLL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>劫持或侧加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Slideloading</t>
+    </r>
+  </si>
+  <si>
+    <t>MemoryModule</t>
+  </si>
+  <si>
+    <r>
+      <t>DLL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>反射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DLL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注入</t>
+    </r>
+  </si>
+  <si>
+    <t>ModuleOverloading</t>
+  </si>
+  <si>
+    <t>ModuleShifting</t>
+  </si>
+  <si>
+    <t>VadRemaping</t>
+  </si>
+  <si>
+    <t>ModuleUnlinkUnhook</t>
+  </si>
+  <si>
+    <t>PythonMemoryModule</t>
+  </si>
+  <si>
+    <t>ReflectiveDLLInjection</t>
+  </si>
+  <si>
+    <t>KnownDLLsCachePoisoning</t>
+  </si>
+  <si>
+    <t>InMemoryExecutionOfDLL</t>
+  </si>
+  <si>
+    <r>
+      <t>VAD(VirtualAddressDescriptor)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ThreadLocalStorageInjection(TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ThreadExecutionHijacking</t>
+  </si>
+  <si>
+    <t>EarlyBirdAPCInjection</t>
+  </si>
+  <si>
+    <t>WindowsFibersInjection</t>
+  </si>
+  <si>
+    <r>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Detours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的任意hook攻击</t>
+    </r>
+  </si>
+  <si>
+    <t>ExceptionDispatchingInjection</t>
+  </si>
+  <si>
+    <t>CtrlInject</t>
+  </si>
+  <si>
+    <t>InstrumentationCallbackInjection</t>
+  </si>
+  <si>
+    <t>WNFCallback</t>
+  </si>
+  <si>
+    <t>ServiceControl</t>
+  </si>
+  <si>
+    <t>窗口类Eminject</t>
+  </si>
+  <si>
+    <t>TooltipOrCommonControls</t>
+  </si>
+  <si>
+    <t>WOW64CallbackTable(FinFisher)</t>
+  </si>
+  <si>
+    <t>BreakingBaDDEr</t>
+  </si>
+  <si>
+    <t>DNSClientAPI</t>
+  </si>
+  <si>
+    <t>MPRDLLAndShellNotifications</t>
+  </si>
+  <si>
+    <t>WinsockHelperFunctions(WSHX)</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>调用寄存器</t>
+  </si>
+  <si>
+    <r>
+      <t>GPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显存注入</t>
+    </r>
+  </si>
+  <si>
+    <t>SleepObfuscation</t>
+  </si>
+  <si>
+    <t>加密OR压缩</t>
+  </si>
+  <si>
+    <t>ReturnAddressSpoofingAtExecution</t>
+  </si>
+  <si>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>SpoofingCallStacks</t>
   </si>
   <si>
     <t>进程注入</t>
@@ -1540,7 +1762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1634,50 +1856,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1778,6 +1976,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2314,8 +2515,8 @@
   <sheetPr codeName="检测能力表"/>
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:B158"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75"/>
@@ -2329,42 +2530,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" t="s">
         <v>9</v>
       </c>
@@ -2382,7 +2583,7 @@
       <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
@@ -2391,14 +2592,14 @@
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="56"/>
       <c r="E4"/>
-      <c r="F4" s="64"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" t="s">
@@ -2406,8 +2607,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
@@ -2417,8 +2618,8 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
@@ -2439,15 +2640,15 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
@@ -2457,8 +2658,8 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -2468,8 +2669,8 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
@@ -2479,20 +2680,20 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="64"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
@@ -2502,8 +2703,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="12" t="s">
         <v>24</v>
       </c>
@@ -2522,42 +2723,42 @@
       <c r="C14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="55" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="4"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D16"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="64"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="12" t="s">
         <v>26</v>
       </c>
@@ -2567,8 +2768,8 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12" t="s">
         <v>27</v>
       </c>
@@ -2578,8 +2779,8 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="12" t="s">
         <v>17</v>
       </c>
@@ -2589,28 +2790,28 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="65">
+      <c r="A20" s="57">
         <v>4</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="58" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="55" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="12" t="s">
         <v>30</v>
       </c>
@@ -2620,8 +2821,8 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
@@ -2631,19 +2832,19 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="4"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="12" t="s">
         <v>33</v>
       </c>
@@ -2653,8 +2854,8 @@
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="12" t="s">
         <v>34</v>
       </c>
@@ -2664,20 +2865,20 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D26"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="64"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="12" t="s">
         <v>36</v>
       </c>
@@ -2687,8 +2888,8 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
@@ -2698,8 +2899,8 @@
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="12" t="s">
         <v>38</v>
       </c>
@@ -2718,19 +2919,19 @@
       <c r="C30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="55" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="12" t="s">
         <v>31</v>
       </c>
@@ -2740,8 +2941,8 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="12" t="s">
         <v>32</v>
       </c>
@@ -2751,19 +2952,19 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="64"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="4"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="12" t="s">
         <v>19</v>
       </c>
@@ -2773,8 +2974,8 @@
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="12" t="s">
         <v>40</v>
       </c>
@@ -2784,20 +2985,20 @@
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D36"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="64"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="12" t="s">
         <v>24</v>
       </c>
@@ -2807,20 +3008,20 @@
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="65">
+      <c r="A38" s="57">
         <v>6</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="55" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="63" t="s">
+      <c r="F38" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="12"/>
@@ -2857,7 +3058,7 @@
       <c r="C42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="64"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="4"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2877,7 +3078,7 @@
       </c>
       <c r="D44"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="64"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
     </row>
@@ -2900,10 +3101,10 @@
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="65">
+      <c r="A47" s="57">
         <v>7</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="12" t="s">
@@ -2911,7 +3112,7 @@
       </c>
       <c r="D47"/>
       <c r="E47"/>
-      <c r="F47" s="63" t="s">
+      <c r="F47" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="12"/>
@@ -2959,7 +3160,7 @@
       </c>
       <c r="D52"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="64"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
@@ -2973,10 +3174,10 @@
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="68">
+      <c r="A54" s="60">
         <v>8</v>
       </c>
-      <c r="B54" s="69" t="s">
+      <c r="B54" s="61" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -2984,7 +3185,7 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="12"/>
@@ -3041,7 +3242,7 @@
       </c>
       <c r="D60"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="64"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
     </row>
@@ -3055,22 +3256,22 @@
       <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="68">
+      <c r="A62" s="60">
         <v>9</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="62" t="s">
         <v>47</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="71" t="s">
+      <c r="D62" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E62" s="63" t="s">
+      <c r="E62" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="63" t="s">
+      <c r="F62" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="12"/>
@@ -3086,8 +3287,8 @@
       <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="12" t="s">
         <v>16</v>
       </c>
@@ -3110,28 +3311,28 @@
         <v>50</v>
       </c>
       <c r="D66"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="68">
+      <c r="A67" s="60">
         <v>10</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="71" t="s">
+      <c r="D67" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="71" t="s">
+      <c r="F67" s="63" t="s">
         <v>48</v>
       </c>
       <c r="G67" s="12"/>
@@ -3160,27 +3361,27 @@
         <v>54</v>
       </c>
       <c r="D70"/>
-      <c r="E70" s="67"/>
+      <c r="E70" s="59"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="68">
+      <c r="A71" s="60">
         <v>11</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="62" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="71" t="s">
+      <c r="D71" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F71" s="63" t="s">
+      <c r="F71" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G71" s="12"/>
@@ -3218,8 +3419,8 @@
         <v>23</v>
       </c>
       <c r="D75"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
     </row>
@@ -3233,20 +3434,20 @@
       <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="68">
+      <c r="A77" s="60">
         <v>12</v>
       </c>
-      <c r="B77" s="70" t="s">
+      <c r="B77" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="63" t="s">
+      <c r="E77" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="63" t="s">
+      <c r="F77" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G77" s="12"/>
@@ -3284,8 +3485,8 @@
         <v>16</v>
       </c>
       <c r="D81"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
     </row>
@@ -3299,22 +3500,22 @@
       <c r="H82" s="12"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="68">
+      <c r="A83" s="60">
         <v>13</v>
       </c>
-      <c r="B83" s="70" t="s">
+      <c r="B83" s="62" t="s">
         <v>60</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D83" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F83" s="71" t="s">
+      <c r="F83" s="63" t="s">
         <v>48</v>
       </c>
       <c r="G83" s="12"/>
@@ -3325,7 +3526,7 @@
         <v>58</v>
       </c>
       <c r="D84"/>
-      <c r="E84" s="64"/>
+      <c r="E84" s="56"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
     </row>
@@ -3361,7 +3562,7 @@
         <v>61</v>
       </c>
       <c r="D88"/>
-      <c r="E88" s="64"/>
+      <c r="E88" s="56"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
     </row>
@@ -3375,22 +3576,22 @@
       <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="68">
+      <c r="A90" s="60">
         <v>14</v>
       </c>
-      <c r="B90" s="70" t="s">
+      <c r="B90" s="62" t="s">
         <v>63</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E90" s="63" t="s">
+      <c r="E90" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="71" t="s">
+      <c r="F90" s="63" t="s">
         <v>48</v>
       </c>
       <c r="G90" s="12"/>
@@ -3446,27 +3647,27 @@
         <v>62</v>
       </c>
       <c r="D96"/>
-      <c r="E96" s="67"/>
+      <c r="E96" s="59"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="65">
+      <c r="A97" s="57">
         <v>15</v>
       </c>
-      <c r="B97" s="66" t="s">
+      <c r="B97" s="58" t="s">
         <v>66</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="71" t="s">
+      <c r="D97" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E97" s="71" t="s">
+      <c r="E97" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F97" s="71" t="s">
+      <c r="F97" s="63" t="s">
         <v>48</v>
       </c>
       <c r="G97" s="12"/>
@@ -3485,9 +3686,9 @@
       <c r="C99" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
     </row>
@@ -3510,22 +3711,22 @@
       <c r="H101" s="12"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="68">
+      <c r="A102" s="60">
         <v>16</v>
       </c>
-      <c r="B102" s="70" t="s">
+      <c r="B102" s="62" t="s">
         <v>69</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="71" t="s">
+      <c r="D102" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E102" s="63" t="s">
+      <c r="E102" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F102" s="63" t="s">
+      <c r="F102" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="12"/>
@@ -3544,7 +3745,7 @@
       <c r="C104" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D104" s="64"/>
+      <c r="D104" s="56"/>
       <c r="E104"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
@@ -3563,8 +3764,8 @@
         <v>16</v>
       </c>
       <c r="D106"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
     </row>
@@ -3578,22 +3779,22 @@
       <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="68">
+      <c r="A108" s="60">
         <v>17</v>
       </c>
-      <c r="B108" s="70" t="s">
+      <c r="B108" s="62" t="s">
         <v>70</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="71" t="s">
+      <c r="D108" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E108" s="63" t="s">
+      <c r="E108" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F108" s="71" t="s">
+      <c r="F108" s="63" t="s">
         <v>48</v>
       </c>
       <c r="G108" s="12"/>
@@ -3612,9 +3813,9 @@
       <c r="C110" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="64"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
     </row>
@@ -3637,22 +3838,22 @@
       <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="68">
+      <c r="A113" s="60">
         <v>18</v>
       </c>
-      <c r="B113" s="70" t="s">
+      <c r="B113" s="62" t="s">
         <v>71</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="71" t="s">
+      <c r="D113" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E113" s="63" t="s">
+      <c r="E113" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F113" s="71" t="s">
+      <c r="F113" s="63" t="s">
         <v>48</v>
       </c>
       <c r="G113" s="12"/>
@@ -3671,9 +3872,9 @@
       <c r="C115" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
     </row>
@@ -3705,22 +3906,22 @@
       <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="68">
+      <c r="A119" s="60">
         <v>19</v>
       </c>
-      <c r="B119" s="70" t="s">
+      <c r="B119" s="62" t="s">
         <v>74</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="71" t="s">
+      <c r="D119" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E119" s="63" t="s">
+      <c r="E119" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F119" s="71" t="s">
+      <c r="F119" s="63" t="s">
         <v>48</v>
       </c>
       <c r="G119" s="12"/>
@@ -3784,9 +3985,9 @@
       <c r="C126" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D126" s="64"/>
-      <c r="E126" s="64"/>
-      <c r="F126" s="64"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
     </row>
@@ -3845,28 +4046,28 @@
       <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="68">
+      <c r="A133" s="60">
         <v>20</v>
       </c>
-      <c r="B133" s="70" t="s">
+      <c r="B133" s="62" t="s">
         <v>84</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="71" t="s">
+      <c r="D133" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E133" s="72" t="s">
+      <c r="E133" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F133" s="72" t="s">
+      <c r="F133" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="G133" s="73" t="s">
+      <c r="G133" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="H133" s="73" t="s">
+      <c r="H133" s="65" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3875,46 +4076,46 @@
         <v>14</v>
       </c>
       <c r="D134"/>
-      <c r="E134" s="74"/>
-      <c r="G134" s="64"/>
-      <c r="H134" s="64"/>
+      <c r="E134" s="66"/>
+      <c r="G134" s="56"/>
+      <c r="H134" s="56"/>
     </row>
     <row r="135" spans="3:8">
       <c r="C135" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D135" s="64"/>
-      <c r="E135" s="75"/>
-      <c r="F135" s="64"/>
-      <c r="G135" s="64"/>
-      <c r="H135" s="64"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="56"/>
+      <c r="H135" s="56"/>
     </row>
     <row r="136" spans="3:8">
       <c r="C136" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D136"/>
-      <c r="E136" s="74"/>
-      <c r="G136" s="67"/>
-      <c r="H136" s="67"/>
+      <c r="E136" s="66"/>
+      <c r="G136" s="59"/>
+      <c r="H136" s="59"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="68">
+      <c r="A137" s="60">
         <v>21</v>
       </c>
-      <c r="B137" s="70" t="s">
+      <c r="B137" s="62" t="s">
         <v>87</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D137" s="63" t="s">
+      <c r="D137" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E137" s="71" t="s">
+      <c r="E137" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F137" s="71" t="s">
+      <c r="F137" s="63" t="s">
         <v>48</v>
       </c>
       <c r="G137" s="12"/>
@@ -3933,9 +4134,9 @@
       <c r="C139" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D139" s="64"/>
-      <c r="E139" s="64"/>
-      <c r="F139" s="64"/>
+      <c r="D139" s="56"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="56"/>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
     </row>
@@ -3953,27 +4154,27 @@
         <v>17</v>
       </c>
       <c r="D141"/>
-      <c r="E141" s="76"/>
+      <c r="E141" s="68"/>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="68">
+      <c r="A142" s="60">
         <v>22</v>
       </c>
-      <c r="B142" s="70" t="s">
+      <c r="B142" s="62" t="s">
         <v>91</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D142" s="71" t="s">
+      <c r="D142" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E142" s="63" t="s">
+      <c r="E142" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F142" s="63" t="s">
+      <c r="F142" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G142" s="12"/>
@@ -3994,7 +4195,7 @@
       </c>
       <c r="D144"/>
       <c r="E144"/>
-      <c r="F144" s="64"/>
+      <c r="F144" s="56"/>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
     </row>
@@ -4002,8 +4203,8 @@
       <c r="C145" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D145" s="64"/>
-      <c r="E145" s="64"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="56"/>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
     </row>
@@ -4026,22 +4227,22 @@
       <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="68">
+      <c r="A148" s="60">
         <v>23</v>
       </c>
-      <c r="B148" s="70" t="s">
+      <c r="B148" s="62" t="s">
         <v>92</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="77" t="s">
+      <c r="D148" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E148" s="78" t="s">
+      <c r="E148" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="F148" s="78" t="s">
+      <c r="F148" s="70" t="s">
         <v>48</v>
       </c>
       <c r="G148" s="12"/>
@@ -4052,8 +4253,8 @@
         <v>35</v>
       </c>
       <c r="D149"/>
-      <c r="E149" s="76"/>
-      <c r="F149" s="76"/>
+      <c r="E149" s="68"/>
+      <c r="F149" s="68"/>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
     </row>
@@ -4062,16 +4263,16 @@
         <v>17</v>
       </c>
       <c r="D150"/>
-      <c r="E150" s="76"/>
-      <c r="F150" s="76"/>
+      <c r="E150" s="68"/>
+      <c r="F150" s="68"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="68">
+      <c r="A151" s="60">
         <v>24</v>
       </c>
-      <c r="B151" s="70" t="s">
+      <c r="B151" s="62" t="s">
         <v>93</v>
       </c>
       <c r="C151" s="12" t="s">
@@ -4112,281 +4313,521 @@
       <c r="H154" s="12"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="79">
+      <c r="A155" s="71">
         <v>25</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D155" s="71" t="s">
+      <c r="D155" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E155" s="63" t="s">
+      <c r="E155" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F155" s="63" t="s">
+      <c r="F155" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="79">
+      <c r="A156" s="71">
         <v>26</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D156" s="71" t="s">
+      <c r="D156" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E156" s="63" t="s">
+      <c r="E156" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F156" s="63" t="s">
+      <c r="F156" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G156" s="12"/>
       <c r="H156" s="12"/>
     </row>
     <row r="157" ht="24.75" spans="1:8">
-      <c r="A157" s="79">
+      <c r="A157" s="71">
         <v>27</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D157" s="71" t="s">
+      <c r="D157" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E157" s="63" t="s">
+      <c r="E157" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F157" s="63" t="s">
+      <c r="F157" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
     </row>
     <row r="158" ht="25.5" spans="1:8">
-      <c r="A158" s="79">
+      <c r="A158" s="71">
         <v>28</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D158" s="71" t="s">
+      <c r="D158" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E158" s="63" t="s">
+      <c r="E158" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F158" s="63" t="s">
+      <c r="F158" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
     </row>
-    <row r="159" spans="3:8">
+    <row r="159" spans="1:8">
+      <c r="A159" s="10">
+        <v>29</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
     </row>
-    <row r="160" spans="3:8">
+    <row r="160" spans="1:8">
+      <c r="A160" s="10">
+        <v>30</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
     </row>
-    <row r="161" spans="6:8">
+    <row r="161" ht="25.5" spans="1:8">
+      <c r="A161" s="10">
+        <v>31</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
     </row>
-    <row r="162" spans="6:8">
+    <row r="162" spans="1:8">
+      <c r="A162" s="10">
+        <v>32</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
     </row>
-    <row r="163" spans="6:8">
+    <row r="163" spans="1:8">
+      <c r="A163" s="10">
+        <v>33</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
     </row>
-    <row r="164" spans="6:8">
+    <row r="164" spans="1:8">
+      <c r="A164" s="10">
+        <v>34</v>
+      </c>
+      <c r="B164" s="72" t="s">
+        <v>104</v>
+      </c>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
     </row>
-    <row r="165" spans="6:8">
+    <row r="165" spans="1:8">
+      <c r="A165" s="10">
+        <v>35</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
     </row>
-    <row r="166" spans="6:8">
+    <row r="166" spans="1:8">
+      <c r="A166" s="10">
+        <v>36</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
     </row>
-    <row r="167" spans="6:8">
+    <row r="167" spans="1:8">
+      <c r="A167" s="10">
+        <v>37</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
     </row>
-    <row r="168" spans="6:8">
+    <row r="168" spans="1:8">
+      <c r="A168" s="10">
+        <v>38</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
     </row>
-    <row r="169" spans="6:8">
+    <row r="169" spans="1:8">
+      <c r="A169" s="10">
+        <v>39</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
     </row>
-    <row r="170" spans="6:8">
+    <row r="170" ht="25.5" spans="1:8">
+      <c r="A170" s="10">
+        <v>40</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
     </row>
-    <row r="171" spans="6:8">
+    <row r="171" ht="25.5" spans="1:8">
+      <c r="A171" s="10">
+        <v>41</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
     </row>
-    <row r="172" spans="6:8">
+    <row r="172" ht="25.5" spans="1:8">
+      <c r="A172" s="10">
+        <v>42</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
     </row>
-    <row r="173" spans="6:8">
+    <row r="173" ht="25.5" spans="1:8">
+      <c r="A173" s="10">
+        <v>43</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
     </row>
-    <row r="174" spans="6:8">
+    <row r="174" ht="25.5" spans="1:8">
+      <c r="A174" s="10">
+        <v>44</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
     </row>
-    <row r="175" spans="6:8">
+    <row r="175" ht="25.5" spans="1:8">
+      <c r="A175" s="10">
+        <v>45</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
     </row>
-    <row r="176" spans="6:8">
+    <row r="176" spans="1:8">
+      <c r="A176" s="10">
+        <v>46</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
     </row>
-    <row r="177" spans="6:8">
+    <row r="177" ht="25.5" spans="1:8">
+      <c r="A177" s="10">
+        <v>47</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
     </row>
-    <row r="178" spans="6:8">
+    <row r="178" ht="24.75" spans="1:8">
+      <c r="A178" s="10">
+        <v>48</v>
+      </c>
+      <c r="B178" s="72" t="s">
+        <v>118</v>
+      </c>
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
     </row>
-    <row r="179" spans="6:8">
+    <row r="179" ht="25.5" spans="1:8">
+      <c r="A179" s="10">
+        <v>49</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
     </row>
-    <row r="180" spans="6:8">
+    <row r="180" spans="1:8">
+      <c r="A180" s="10">
+        <v>50</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
     </row>
-    <row r="181" spans="6:8">
+    <row r="181" ht="25.5" spans="1:8">
+      <c r="A181" s="10">
+        <v>51</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
     </row>
-    <row r="182" spans="6:8">
+    <row r="182" spans="1:8">
+      <c r="A182" s="10">
+        <v>52</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
     </row>
-    <row r="183" spans="6:8">
+    <row r="183" spans="1:8">
+      <c r="A183" s="10">
+        <v>53</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
     </row>
-    <row r="184" spans="6:8">
+    <row r="184" spans="1:8">
+      <c r="A184" s="10">
+        <v>54</v>
+      </c>
+      <c r="B184" s="72" t="s">
+        <v>124</v>
+      </c>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
     </row>
-    <row r="185" spans="6:8">
+    <row r="185" ht="25.5" spans="1:8">
+      <c r="A185" s="10">
+        <v>55</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
     </row>
-    <row r="186" spans="6:8">
+    <row r="186" ht="25.5" spans="1:8">
+      <c r="A186" s="10">
+        <v>56</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
     </row>
-    <row r="187" spans="6:8">
+    <row r="187" spans="1:8">
+      <c r="A187" s="10">
+        <v>57</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
     </row>
-    <row r="188" spans="6:8">
+    <row r="188" spans="1:8">
+      <c r="A188" s="10">
+        <v>59</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
     </row>
-    <row r="189" spans="6:8">
+    <row r="189" ht="25.5" spans="1:8">
+      <c r="A189" s="10">
+        <v>60</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
     </row>
-    <row r="190" spans="6:8">
+    <row r="190" ht="25.5" spans="1:8">
+      <c r="A190" s="10">
+        <v>61</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
     </row>
-    <row r="191" spans="6:8">
+    <row r="191" spans="1:8">
+      <c r="A191" s="10">
+        <v>62</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
     </row>
-    <row r="192" spans="6:8">
+    <row r="192" spans="1:8">
+      <c r="A192" s="10">
+        <v>63</v>
+      </c>
+      <c r="B192" s="72" t="s">
+        <v>132</v>
+      </c>
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
     </row>
-    <row r="193" spans="6:8">
+    <row r="193" spans="1:8">
+      <c r="A193" s="10">
+        <v>64</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
     </row>
-    <row r="194" spans="6:8">
+    <row r="194" spans="1:8">
+      <c r="A194" s="10">
+        <v>65</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
     </row>
-    <row r="195" spans="6:8">
+    <row r="195" spans="1:8">
+      <c r="A195" s="10">
+        <v>66</v>
+      </c>
+      <c r="B195" s="72" t="s">
+        <v>135</v>
+      </c>
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
     </row>
-    <row r="196" spans="6:8">
+    <row r="196" ht="25.5" spans="1:8">
+      <c r="A196" s="10">
+        <v>67</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
     </row>
-    <row r="197" spans="6:8">
+    <row r="197" spans="1:8">
+      <c r="A197" s="10">
+        <v>68</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
     </row>
-    <row r="198" spans="6:8">
+    <row r="198" spans="1:8">
+      <c r="A198" s="10">
+        <v>69</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
@@ -4546,7 +4987,7 @@
   </sheetPr>
   <dimension ref="A1:W199"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="I148" sqref="I148:I150"/>
     </sheetView>
   </sheetViews>
@@ -4569,31 +5010,31 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="16" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="42"/>
+        <v>142</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="19"/>
       <c r="M1"/>
-      <c r="N1" s="43"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
@@ -4606,28 +5047,28 @@
         <v>8</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
-      <c r="K2" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>110</v>
+      <c r="K2" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>150</v>
       </c>
       <c r="M2"/>
-      <c r="N2" s="44"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="24">
@@ -4640,3572 +5081,3572 @@
         <v>12</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="29" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="J3" s="29"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="38"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>112</v>
+      <c r="D4" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="38"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>112</v>
+      <c r="D5" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>116</v>
+      <c r="J5" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="M5"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="31"/>
+      <c r="D6" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="26"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="34">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
+      <c r="D7" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>112</v>
+      <c r="D8" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>112</v>
+      <c r="D9" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="38"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>112</v>
+      <c r="D10" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="38"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>112</v>
+      <c r="D11" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
+      <c r="J11" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>112</v>
+      <c r="D12" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
+      <c r="J12" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>112</v>
+      <c r="D13" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="38"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="34">
+      <c r="A14" s="24">
         <v>3</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
+      <c r="D14" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="38"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>112</v>
+      <c r="D15" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="38"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>112</v>
+      <c r="D16" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
+      <c r="J16" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="38"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="38"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="31"/>
+      <c r="D19" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="26"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="38"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="34">
+      <c r="A20" s="24">
         <v>4</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="38"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="26"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="38"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="31"/>
+      <c r="D22" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="26"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="26"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="26"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>112</v>
+      <c r="D25" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="38"/>
     </row>
     <row r="26" ht="51" spans="1:12">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>112</v>
+      <c r="D26" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="L26" s="48" t="s">
-        <v>123</v>
+      <c r="J26" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="26"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="38"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="31"/>
+      <c r="D28" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="26"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="38"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="31"/>
+      <c r="D29" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="26"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="34">
+      <c r="A30" s="24">
         <v>5</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="38"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="31"/>
+      <c r="D31" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="26"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="38"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="26"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="38"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="26"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="46"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="38"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="31"/>
+      <c r="D34" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="26"/>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="38"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>112</v>
+      <c r="D35" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="46"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="38"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>112</v>
+      <c r="D36" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K36" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="L36" s="46"/>
+      <c r="J36" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="L36" s="38"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>112</v>
+      <c r="D37" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="38"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="34">
+      <c r="A38" s="24">
         <v>6</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I38" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="38"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="26"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="38"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="31"/>
+      <c r="D40" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="26"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="46"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="38"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="31"/>
+      <c r="D41" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="26"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="46"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="38"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="26"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="46"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="38"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>112</v>
+      <c r="D43" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="46"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="38"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>112</v>
+      <c r="D44" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
-      <c r="J44" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K44" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="L44" s="46" t="s">
-        <v>123</v>
+      <c r="J44" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="L44" s="38" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="26"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="46"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="38"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46" s="31"/>
+      <c r="D46" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="26"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="46"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="38"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="34">
+      <c r="A47" s="24">
         <v>7</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J47" s="36"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="46"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="38"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="26"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="46"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="38"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="31"/>
+      <c r="D49" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="26"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="46"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="38"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" s="31"/>
+      <c r="D50" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="26"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="46"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="38"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>112</v>
+      <c r="D51" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="46"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="38"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G52" s="33" t="s">
-        <v>112</v>
+      <c r="D52" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
-      <c r="J52" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K52" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="L52" s="46"/>
+      <c r="J52" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K52" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="L52" s="38"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>112</v>
+      <c r="D53" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="46"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="38"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="34">
+      <c r="A54" s="24">
         <v>8</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="31"/>
-      <c r="H54" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I54" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J54" s="36"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="46"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="26"/>
+      <c r="H54" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J54" s="29"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="38"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G55" s="31"/>
+      <c r="D55" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="26"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="46"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="38"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G56" s="31"/>
+      <c r="D56" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" s="26"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="46"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="38"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="26"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="46"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="38"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="26"/>
       <c r="H58" s="30"/>
       <c r="I58" s="30"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="46"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="38"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" s="31"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G59" s="26"/>
       <c r="H59" s="30"/>
       <c r="I59" s="30"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="46"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="38"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="33" t="s">
-        <v>112</v>
+      <c r="D60" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
-      <c r="J60" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K60" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="L60" s="46" t="s">
-        <v>123</v>
+      <c r="J60" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="L60" s="38" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G61" s="33" t="s">
-        <v>112</v>
+      <c r="D61" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="26"/>
+      <c r="F61" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="46"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="38"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="34">
+      <c r="A62" s="24">
         <v>9</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="I62" s="36">
+      <c r="D62" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="26"/>
+      <c r="H62" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I62" s="29">
         <v>3</v>
       </c>
-      <c r="J62" s="36"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="46"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="38"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>112</v>
+      <c r="D63" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="26"/>
+      <c r="F63" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="46"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="38"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="31" t="s">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" s="33" t="s">
-        <v>112</v>
+      <c r="D64" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
-      <c r="J64" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K64" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L64" s="46" t="s">
-        <v>116</v>
+      <c r="J64" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L64" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F65" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G65" s="31"/>
+      <c r="D65" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G65" s="26"/>
       <c r="H65" s="30"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="46"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="38"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="30"/>
       <c r="B66" s="30"/>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D66" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" s="33" t="s">
-        <v>112</v>
+      <c r="D66" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="26"/>
+      <c r="F66" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
-      <c r="J66" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K66" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L66" s="46" t="s">
-        <v>125</v>
+      <c r="J66" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L66" s="38" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="34">
+      <c r="A67" s="24">
         <v>10</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I67" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="J67" s="36"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="46"/>
+      <c r="D67" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67" s="26"/>
+      <c r="H67" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="J67" s="29"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="38"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G68" s="31"/>
+      <c r="D68" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="26"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="46"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="38"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D69" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
+      <c r="D69" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
       <c r="H69" s="30"/>
       <c r="I69" s="30"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="46"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="38"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G70" s="31"/>
+      <c r="D70" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="26"/>
+      <c r="F70" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G70" s="26"/>
       <c r="H70" s="30"/>
       <c r="I70" s="30"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="46"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="38"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="34">
+      <c r="A71" s="24">
         <v>11</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G71" s="31"/>
-      <c r="H71" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="I71" s="36">
+      <c r="D71" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="26"/>
+      <c r="H71" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I71" s="29">
         <v>3</v>
       </c>
-      <c r="J71" s="36"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="46"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="38"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G72" s="33" t="s">
-        <v>112</v>
+      <c r="D72" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="26"/>
+      <c r="F72" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="46"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="38"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G73" s="33" t="s">
-        <v>112</v>
+      <c r="D73" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="26"/>
+      <c r="F73" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H73" s="30"/>
       <c r="I73" s="30"/>
-      <c r="J73" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K73" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L73" s="46" t="s">
-        <v>116</v>
+      <c r="J73" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K73" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L73" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="30"/>
       <c r="B74" s="30"/>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E74" s="31"/>
-      <c r="F74" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G74" s="33" t="s">
-        <v>112</v>
+      <c r="D74" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="26"/>
+      <c r="F74" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H74" s="30"/>
       <c r="I74" s="30"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="46"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="38"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="30"/>
       <c r="B75" s="30"/>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E75" s="31"/>
-      <c r="F75" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G75" s="33" t="s">
-        <v>112</v>
+      <c r="D75" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H75" s="30"/>
       <c r="I75" s="30"/>
-      <c r="J75" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K75" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L75" s="46"/>
+      <c r="J75" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K75" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L75" s="38"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G76" s="33" t="s">
-        <v>112</v>
+      <c r="D76" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E76" s="26"/>
+      <c r="F76" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H76" s="30"/>
       <c r="I76" s="30"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="46"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="38"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="34">
+      <c r="A77" s="24">
         <v>12</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I77" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J77" s="36"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="46"/>
+      <c r="D77" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G77" s="26"/>
+      <c r="H77" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I77" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J77" s="29"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="38"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G78" s="33" t="s">
-        <v>112</v>
+      <c r="D78" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="26"/>
+      <c r="F78" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H78" s="30"/>
       <c r="I78" s="30"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="46"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="38"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G79" s="26"/>
       <c r="H79" s="30"/>
       <c r="I79" s="30"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="46"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="38"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G80" s="33" t="s">
-        <v>112</v>
+      <c r="D80" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="26"/>
+      <c r="F80" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H80" s="30"/>
       <c r="I80" s="30"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="46"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="38"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="30"/>
       <c r="B81" s="30"/>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G81" s="33" t="s">
-        <v>112</v>
+      <c r="D81" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="F81" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H81" s="30"/>
       <c r="I81" s="30"/>
-      <c r="J81" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K81" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L81" s="46" t="s">
-        <v>116</v>
+      <c r="J81" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K81" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L81" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D82" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
+      <c r="D82" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
       <c r="H82" s="30"/>
       <c r="I82" s="30"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="46"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="38"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="34">
+      <c r="A83" s="24">
         <v>13</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I83" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J83" s="36"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="46"/>
+      <c r="D83" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G83" s="26"/>
+      <c r="H83" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I83" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J83" s="29"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="38"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="30"/>
       <c r="B84" s="30"/>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G84" s="31"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G84" s="26"/>
       <c r="H84" s="30"/>
       <c r="I84" s="30"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="46"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="38"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="30"/>
       <c r="B85" s="30"/>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G85" s="33" t="s">
-        <v>112</v>
+      <c r="D85" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E85" s="26"/>
+      <c r="F85" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H85" s="30"/>
       <c r="I85" s="30"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="46"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="38"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="30"/>
       <c r="B86" s="30"/>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="31"/>
-      <c r="F86" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G86" s="33" t="s">
-        <v>112</v>
+      <c r="D86" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="26"/>
+      <c r="F86" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H86" s="30"/>
       <c r="I86" s="30"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="46"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="38"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="30"/>
       <c r="B87" s="30"/>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G87" s="33" t="s">
-        <v>112</v>
+      <c r="D87" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E87" s="26"/>
+      <c r="F87" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H87" s="30"/>
       <c r="I87" s="30"/>
-      <c r="J87" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K87" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L87" s="46" t="s">
-        <v>116</v>
+      <c r="J87" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K87" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L87" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="30"/>
       <c r="B88" s="30"/>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G88" s="31"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G88" s="26"/>
       <c r="H88" s="30"/>
       <c r="I88" s="30"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="46"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="38"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="30"/>
       <c r="B89" s="30"/>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
+      <c r="D89" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
       <c r="H89" s="30"/>
       <c r="I89" s="30"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="46"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="38"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="34">
+      <c r="A90" s="24">
         <v>14</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D90" s="37"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G90" s="31"/>
-      <c r="H90" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I90" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J90" s="36"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="46"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G90" s="26"/>
+      <c r="H90" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I90" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J90" s="29"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="38"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="30"/>
       <c r="B91" s="30"/>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G91" s="31"/>
+      <c r="D91" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G91" s="26"/>
       <c r="H91" s="30"/>
       <c r="I91" s="30"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="46"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="38"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="30"/>
       <c r="B92" s="30"/>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E92" s="31"/>
-      <c r="F92" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G92" s="33" t="s">
-        <v>112</v>
+      <c r="D92" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E92" s="26"/>
+      <c r="F92" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H92" s="30"/>
       <c r="I92" s="30"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="46"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="38"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="30"/>
       <c r="B93" s="30"/>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E93" s="31"/>
-      <c r="F93" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" s="33" t="s">
-        <v>112</v>
+      <c r="D93" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" s="26"/>
+      <c r="F93" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H93" s="30"/>
       <c r="I93" s="30"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="46"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="38"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="30"/>
       <c r="B94" s="30"/>
-      <c r="C94" s="31" t="s">
+      <c r="C94" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E94" s="31"/>
-      <c r="F94" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G94" s="33" t="s">
-        <v>112</v>
+      <c r="D94" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E94" s="26"/>
+      <c r="F94" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H94" s="30"/>
       <c r="I94" s="30"/>
-      <c r="J94" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K94" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L94" s="46" t="s">
-        <v>116</v>
+      <c r="J94" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K94" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L94" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="30"/>
       <c r="B95" s="30"/>
-      <c r="C95" s="31" t="s">
+      <c r="C95" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D95" s="37"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" s="31"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G95" s="26"/>
       <c r="H95" s="30"/>
       <c r="I95" s="30"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="46"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="38"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="30"/>
       <c r="B96" s="30"/>
-      <c r="C96" s="31" t="s">
+      <c r="C96" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D96" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G96" s="31"/>
+      <c r="D96" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G96" s="26"/>
       <c r="H96" s="30"/>
       <c r="I96" s="30"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="46"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="38"/>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="34">
+      <c r="A97" s="24">
         <v>15</v>
       </c>
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F97" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" s="31"/>
-      <c r="H97" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I97" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J97" s="36"/>
-      <c r="K97" s="45"/>
-      <c r="L97" s="46"/>
+      <c r="D97" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F97" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G97" s="26"/>
+      <c r="H97" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I97" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J97" s="29"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="38"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="30"/>
       <c r="B98" s="30"/>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D98" s="37"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G98" s="31"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" s="26"/>
       <c r="H98" s="30"/>
       <c r="I98" s="30"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="45"/>
-      <c r="L98" s="46"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="38"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="30"/>
       <c r="B99" s="30"/>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E99" s="31"/>
-      <c r="F99" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G99" s="33" t="s">
-        <v>112</v>
+      <c r="D99" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E99" s="26"/>
+      <c r="F99" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H99" s="30"/>
       <c r="I99" s="30"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="46"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="38"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="30"/>
       <c r="B100" s="30"/>
-      <c r="C100" s="31" t="s">
+      <c r="C100" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E100" s="31"/>
-      <c r="F100" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G100" s="33" t="s">
-        <v>112</v>
+      <c r="D100" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" s="26"/>
+      <c r="F100" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H100" s="30"/>
       <c r="I100" s="30"/>
-      <c r="J100" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K100" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L100" s="46" t="s">
-        <v>116</v>
+      <c r="J100" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K100" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L100" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="30"/>
       <c r="B101" s="30"/>
-      <c r="C101" s="31" t="s">
+      <c r="C101" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D101" s="37"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
       <c r="H101" s="30"/>
       <c r="I101" s="30"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="46"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="38"/>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="34">
+      <c r="A102" s="24">
         <v>16</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C102" s="31" t="s">
+      <c r="C102" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F102" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G102" s="31"/>
-      <c r="H102" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I102" s="36">
+      <c r="D102" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G102" s="26"/>
+      <c r="H102" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I102" s="29">
         <v>3</v>
       </c>
-      <c r="J102" s="36"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="46"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="38"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="30"/>
       <c r="B103" s="30"/>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="37"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G103" s="31"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G103" s="26"/>
       <c r="H103" s="30"/>
       <c r="I103" s="30"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="46"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="38"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="30"/>
       <c r="B104" s="30"/>
-      <c r="C104" s="31" t="s">
+      <c r="C104" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D104" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" s="33" t="s">
-        <v>112</v>
+      <c r="D104" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" s="26"/>
+      <c r="F104" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H104" s="30"/>
       <c r="I104" s="30"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="45"/>
-      <c r="L104" s="46"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="38"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="30"/>
       <c r="B105" s="30"/>
-      <c r="C105" s="31" t="s">
+      <c r="C105" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G105" s="33" t="s">
-        <v>112</v>
+      <c r="D105" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="26"/>
+      <c r="F105" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H105" s="30"/>
       <c r="I105" s="30"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="45"/>
-      <c r="L105" s="46"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="38"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="30"/>
       <c r="B106" s="30"/>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E106" s="31"/>
-      <c r="F106" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G106" s="33" t="s">
-        <v>112</v>
+      <c r="D106" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E106" s="26"/>
+      <c r="F106" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H106" s="30"/>
       <c r="I106" s="30"/>
-      <c r="J106" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K106" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L106" s="46" t="s">
-        <v>116</v>
+      <c r="J106" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K106" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L106" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="30"/>
       <c r="B107" s="30"/>
-      <c r="C107" s="31" t="s">
+      <c r="C107" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D107" s="37"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
       <c r="H107" s="30"/>
       <c r="I107" s="30"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="45"/>
-      <c r="L107" s="46"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="38"/>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="34">
+      <c r="A108" s="24">
         <v>17</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G108" s="31"/>
-      <c r="H108" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I108" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J108" s="36"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="46"/>
+      <c r="D108" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G108" s="26"/>
+      <c r="H108" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I108" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J108" s="29"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="38"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="30"/>
       <c r="B109" s="30"/>
-      <c r="C109" s="31" t="s">
+      <c r="C109" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109" s="31"/>
-      <c r="F109" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G109" s="33" t="s">
-        <v>112</v>
+      <c r="D109" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E109" s="26"/>
+      <c r="F109" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H109" s="30"/>
       <c r="I109" s="30"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="45"/>
-      <c r="L109" s="46"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="38"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="30"/>
       <c r="B110" s="30"/>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G110" s="33" t="s">
-        <v>112</v>
+      <c r="D110" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" s="26"/>
+      <c r="F110" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H110" s="30"/>
       <c r="I110" s="30"/>
-      <c r="J110" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K110" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L110" s="46" t="s">
-        <v>116</v>
+      <c r="J110" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K110" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L110" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="30"/>
       <c r="B111" s="30"/>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D111" s="37"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
       <c r="H111" s="30"/>
       <c r="I111" s="30"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="45"/>
-      <c r="L111" s="46"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="38"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="30"/>
       <c r="B112" s="30"/>
-      <c r="C112" s="31" t="s">
+      <c r="C112" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D112" s="37"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
       <c r="H112" s="30"/>
       <c r="I112" s="30"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="45"/>
-      <c r="L112" s="46"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="38"/>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="34">
+      <c r="A113" s="24">
         <v>18</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F113" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G113" s="31"/>
-      <c r="H113" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I113" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J113" s="36"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="46"/>
+      <c r="D113" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F113" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G113" s="26"/>
+      <c r="H113" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I113" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J113" s="29"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="38"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="30"/>
       <c r="B114" s="30"/>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D114" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E114" s="31"/>
-      <c r="F114" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G114" s="33" t="s">
-        <v>112</v>
+      <c r="D114" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="26"/>
+      <c r="F114" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G114" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H114" s="30"/>
       <c r="I114" s="30"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="45"/>
-      <c r="L114" s="46"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="38"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="30"/>
       <c r="B115" s="30"/>
-      <c r="C115" s="31" t="s">
+      <c r="C115" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D115" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E115" s="31"/>
-      <c r="F115" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G115" s="33" t="s">
-        <v>112</v>
+      <c r="D115" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E115" s="26"/>
+      <c r="F115" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G115" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H115" s="30"/>
       <c r="I115" s="30"/>
-      <c r="J115" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K115" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L115" s="46" t="s">
-        <v>116</v>
+      <c r="J115" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K115" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L115" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="30"/>
       <c r="B116" s="30"/>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D116" s="37"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
       <c r="H116" s="30"/>
       <c r="I116" s="30"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="45"/>
-      <c r="L116" s="46"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="38"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="30"/>
       <c r="B117" s="30"/>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D117" s="37"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
       <c r="H117" s="30"/>
       <c r="I117" s="30"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="45"/>
-      <c r="L117" s="46"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="38"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="30"/>
       <c r="B118" s="30"/>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D118" s="37"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
       <c r="H118" s="30"/>
       <c r="I118" s="30"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="45"/>
-      <c r="L118" s="46"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="38"/>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="34">
+      <c r="A119" s="24">
         <v>19</v>
       </c>
-      <c r="B119" s="39" t="s">
+      <c r="B119" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E119" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F119" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G119" s="31"/>
-      <c r="H119" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I119" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J119" s="36"/>
-      <c r="K119" s="45"/>
-      <c r="L119" s="46"/>
+      <c r="D119" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G119" s="26"/>
+      <c r="H119" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I119" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J119" s="29"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="38"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="30"/>
       <c r="B120" s="30"/>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="37"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G120" s="26"/>
       <c r="H120" s="30"/>
       <c r="I120" s="30"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="45"/>
-      <c r="L120" s="46"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="38"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="30"/>
       <c r="B121" s="30"/>
-      <c r="C121" s="31" t="s">
+      <c r="C121" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D121" s="37"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
       <c r="H121" s="30"/>
       <c r="I121" s="30"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="45"/>
-      <c r="L121" s="46"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="30"/>
+      <c r="L121" s="38"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="30"/>
       <c r="B122" s="30"/>
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D122" s="37"/>
-      <c r="E122" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F122" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G122" s="31"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F122" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G122" s="26"/>
       <c r="H122" s="30"/>
       <c r="I122" s="30"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="45"/>
-      <c r="L122" s="46"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="38"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="30"/>
       <c r="B123" s="30"/>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D123" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E123" s="31"/>
-      <c r="F123" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G123" s="33" t="s">
-        <v>112</v>
+      <c r="D123" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123" s="26"/>
+      <c r="F123" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G123" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H123" s="30"/>
       <c r="I123" s="30"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="45"/>
-      <c r="L123" s="46"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="38"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="30"/>
       <c r="B124" s="30"/>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E124" s="31"/>
-      <c r="F124" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G124" s="33" t="s">
-        <v>112</v>
+      <c r="D124" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E124" s="26"/>
+      <c r="F124" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G124" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H124" s="30"/>
       <c r="I124" s="30"/>
-      <c r="J124" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K124" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L124" s="46" t="s">
-        <v>116</v>
+      <c r="J124" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K124" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L124" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="30"/>
       <c r="B125" s="30"/>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D125" s="37"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G125" s="31"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G125" s="26"/>
       <c r="H125" s="30"/>
       <c r="I125" s="30"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="45"/>
-      <c r="L125" s="46"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="38"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="30"/>
       <c r="B126" s="30"/>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D126" s="37"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G126" s="31"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G126" s="26"/>
       <c r="H126" s="30"/>
       <c r="I126" s="30"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="45"/>
-      <c r="L126" s="46"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="38"/>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="30"/>
       <c r="B127" s="30"/>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D127" s="37"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G127" s="31"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G127" s="26"/>
       <c r="H127" s="30"/>
       <c r="I127" s="30"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="45"/>
-      <c r="L127" s="46"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="30"/>
+      <c r="L127" s="38"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="30"/>
       <c r="B128" s="30"/>
-      <c r="C128" s="31" t="s">
+      <c r="C128" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G128" s="31"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G128" s="26"/>
       <c r="H128" s="30"/>
       <c r="I128" s="30"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="45"/>
-      <c r="L128" s="46"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="38"/>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="30"/>
       <c r="B129" s="30"/>
-      <c r="C129" s="31" t="s">
+      <c r="C129" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="37"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G129" s="31"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G129" s="26"/>
       <c r="H129" s="30"/>
       <c r="I129" s="30"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="45"/>
-      <c r="L129" s="46"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="30"/>
+      <c r="L129" s="38"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="30"/>
       <c r="B130" s="30"/>
-      <c r="C130" s="31" t="s">
+      <c r="C130" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G130" s="31"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G130" s="26"/>
       <c r="H130" s="30"/>
       <c r="I130" s="30"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="45"/>
-      <c r="L130" s="46"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="38"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="30"/>
       <c r="B131" s="30"/>
-      <c r="C131" s="31" t="s">
+      <c r="C131" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D131" s="37"/>
-      <c r="E131" s="31"/>
-      <c r="F131" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G131" s="31"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G131" s="26"/>
       <c r="H131" s="30"/>
       <c r="I131" s="30"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="46"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="38"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="30"/>
       <c r="B132" s="30"/>
-      <c r="C132" s="31" t="s">
+      <c r="C132" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D132" s="37"/>
-      <c r="E132" s="31"/>
-      <c r="F132" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G132" s="31"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G132" s="26"/>
       <c r="H132" s="30"/>
       <c r="I132" s="30"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="45"/>
-      <c r="L132" s="46"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="38"/>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="34">
+      <c r="A133" s="24">
         <v>20</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="C133" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F133" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G133" s="31"/>
-      <c r="H133" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I133" s="36">
+      <c r="D133" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G133" s="26"/>
+      <c r="H133" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I133" s="29">
         <v>3</v>
       </c>
-      <c r="J133" s="36"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="46"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="38"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="30"/>
       <c r="B134" s="30"/>
-      <c r="C134" s="31" t="s">
+      <c r="C134" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E134" s="31"/>
-      <c r="F134" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G134" s="33" t="s">
-        <v>112</v>
+      <c r="D134" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" s="26"/>
+      <c r="F134" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G134" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H134" s="30"/>
       <c r="I134" s="30"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="45"/>
-      <c r="L134" s="46"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="38"/>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="30"/>
       <c r="B135" s="30"/>
-      <c r="C135" s="31" t="s">
+      <c r="C135" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D135" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E135" s="31"/>
-      <c r="F135" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G135" s="33" t="s">
-        <v>112</v>
+      <c r="D135" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135" s="26"/>
+      <c r="F135" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G135" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H135" s="30"/>
       <c r="I135" s="30"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="45"/>
-      <c r="L135" s="46"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="38"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="30"/>
       <c r="B136" s="30"/>
-      <c r="C136" s="31" t="s">
+      <c r="C136" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D136" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E136" s="31"/>
-      <c r="F136" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G136" s="33" t="s">
-        <v>112</v>
+      <c r="D136" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E136" s="26"/>
+      <c r="F136" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G136" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H136" s="30"/>
       <c r="I136" s="30"/>
-      <c r="J136" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K136" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L136" s="46" t="s">
-        <v>116</v>
+      <c r="J136" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K136" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L136" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="34">
+      <c r="A137" s="24">
         <v>21</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C137" s="31" t="s">
+      <c r="C137" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D137" s="37"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I137" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="J137" s="36"/>
-      <c r="K137" s="45"/>
-      <c r="L137" s="46"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I137" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="J137" s="29"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="38"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="30"/>
       <c r="B138" s="30"/>
-      <c r="C138" s="31" t="s">
+      <c r="C138" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D138" s="37"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G138" s="31"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G138" s="26"/>
       <c r="H138" s="30"/>
       <c r="I138" s="30"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="45"/>
-      <c r="L138" s="46"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="38"/>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="30"/>
       <c r="B139" s="30"/>
-      <c r="C139" s="31" t="s">
+      <c r="C139" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D139" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F139" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G139" s="31"/>
+      <c r="D139" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F139" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G139" s="26"/>
       <c r="H139" s="30"/>
       <c r="I139" s="30"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="45"/>
-      <c r="L139" s="46"/>
+      <c r="J139" s="29"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="38"/>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="30"/>
       <c r="B140" s="30"/>
-      <c r="C140" s="31" t="s">
+      <c r="C140" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D140" s="37"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G140" s="31"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G140" s="26"/>
       <c r="H140" s="30"/>
       <c r="I140" s="30"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="45"/>
-      <c r="L140" s="46"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="38"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="30"/>
       <c r="B141" s="30"/>
-      <c r="C141" s="31" t="s">
+      <c r="C141" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D141" s="37"/>
-      <c r="E141" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G141" s="31"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F141" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G141" s="26"/>
       <c r="H141" s="30"/>
       <c r="I141" s="30"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="45"/>
-      <c r="L141" s="46"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="38"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="34">
+      <c r="A142" s="24">
         <v>22</v>
       </c>
-      <c r="B142" s="35" t="s">
+      <c r="B142" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C142" s="31" t="s">
+      <c r="C142" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D142" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E142" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F142" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G142" s="31"/>
-      <c r="H142" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I142" s="36">
+      <c r="D142" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F142" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G142" s="26"/>
+      <c r="H142" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I142" s="29">
         <v>3</v>
       </c>
-      <c r="J142" s="36"/>
-      <c r="K142" s="45"/>
-      <c r="L142" s="46"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="38"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="30"/>
       <c r="B143" s="30"/>
-      <c r="C143" s="31" t="s">
+      <c r="C143" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D143" s="37"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G143" s="33" t="s">
-        <v>112</v>
+      <c r="D143" s="32"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G143" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H143" s="30"/>
       <c r="I143" s="30"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="45"/>
-      <c r="L143" s="46"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="30"/>
+      <c r="L143" s="38"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="30"/>
       <c r="B144" s="30"/>
-      <c r="C144" s="31" t="s">
+      <c r="C144" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D144" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E144" s="31"/>
-      <c r="F144" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G144" s="33" t="s">
-        <v>112</v>
+      <c r="D144" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" s="26"/>
+      <c r="F144" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G144" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H144" s="30"/>
       <c r="I144" s="30"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="45"/>
-      <c r="L144" s="46"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="30"/>
+      <c r="L144" s="38"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="30"/>
       <c r="B145" s="30"/>
-      <c r="C145" s="31" t="s">
+      <c r="C145" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D145" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E145" s="31"/>
-      <c r="F145" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G145" s="33" t="s">
-        <v>112</v>
+      <c r="D145" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" s="26"/>
+      <c r="F145" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G145" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H145" s="30"/>
       <c r="I145" s="30"/>
-      <c r="J145" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K145" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L145" s="46" t="s">
-        <v>116</v>
+      <c r="J145" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K145" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L145" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="30"/>
       <c r="B146" s="30"/>
-      <c r="C146" s="31" t="s">
+      <c r="C146" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D146" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E146" s="31"/>
-      <c r="F146" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G146" s="33" t="s">
-        <v>112</v>
+      <c r="D146" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146" s="26"/>
+      <c r="F146" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H146" s="30"/>
       <c r="I146" s="30"/>
-      <c r="J146" s="36"/>
-      <c r="K146" s="45"/>
-      <c r="L146" s="46"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="38"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="30"/>
       <c r="B147" s="30"/>
-      <c r="C147" s="31" t="s">
+      <c r="C147" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D147" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E147" s="31"/>
-      <c r="F147" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G147" s="33" t="s">
-        <v>112</v>
+      <c r="D147" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E147" s="26"/>
+      <c r="F147" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G147" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H147" s="30"/>
       <c r="I147" s="30"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="45"/>
-      <c r="L147" s="46"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="38"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="34">
+      <c r="A148" s="24">
         <v>23</v>
       </c>
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C148" s="31" t="s">
+      <c r="C148" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E148" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F148" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G148" s="31"/>
-      <c r="H148" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I148" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="J148" s="36"/>
-      <c r="K148" s="45"/>
-      <c r="L148" s="46"/>
+      <c r="D148" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E148" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F148" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G148" s="26"/>
+      <c r="H148" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I148" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J148" s="29"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="38"/>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="30"/>
       <c r="B149" s="30"/>
-      <c r="C149" s="31" t="s">
+      <c r="C149" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D149" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E149" s="31"/>
-      <c r="F149" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G149" s="33" t="s">
-        <v>112</v>
+      <c r="D149" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E149" s="26"/>
+      <c r="F149" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G149" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H149" s="30"/>
       <c r="I149" s="30"/>
-      <c r="J149" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K149" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L149" s="46" t="s">
-        <v>116</v>
+      <c r="J149" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K149" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L149" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="30"/>
       <c r="B150" s="30"/>
-      <c r="C150" s="31" t="s">
+      <c r="C150" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D150" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E150" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F150" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G150" s="31"/>
+      <c r="D150" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G150" s="26"/>
       <c r="H150" s="30"/>
       <c r="I150" s="30"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="45"/>
-      <c r="L150" s="46"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="38"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="34">
+      <c r="A151" s="24">
         <v>24</v>
       </c>
-      <c r="B151" s="39" t="s">
+      <c r="B151" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C151" s="31" t="s">
+      <c r="C151" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E151" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F151" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G151" s="31"/>
-      <c r="H151" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="I151" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="J151" s="36"/>
-      <c r="K151" s="45"/>
-      <c r="L151" s="46"/>
+      <c r="D151" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E151" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F151" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G151" s="26"/>
+      <c r="H151" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I151" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J151" s="29"/>
+      <c r="K151" s="30"/>
+      <c r="L151" s="38"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="30"/>
       <c r="B152" s="30"/>
-      <c r="C152" s="31" t="s">
+      <c r="C152" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D152" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E152" s="31"/>
-      <c r="F152" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G152" s="33" t="s">
-        <v>112</v>
+      <c r="D152" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E152" s="26"/>
+      <c r="F152" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G152" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H152" s="30"/>
       <c r="I152" s="30"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="45"/>
-      <c r="L152" s="46"/>
+      <c r="J152" s="29"/>
+      <c r="K152" s="30"/>
+      <c r="L152" s="38"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="30"/>
       <c r="B153" s="30"/>
-      <c r="C153" s="31" t="s">
+      <c r="C153" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D153" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E153" s="31"/>
-      <c r="F153" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G153" s="33" t="s">
-        <v>112</v>
+      <c r="D153" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E153" s="26"/>
+      <c r="F153" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G153" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="H153" s="30"/>
       <c r="I153" s="30"/>
-      <c r="J153" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K153" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L153" s="46" t="s">
-        <v>116</v>
+      <c r="J153" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K153" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L153" s="38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="30"/>
       <c r="B154" s="30"/>
-      <c r="C154" s="31" t="s">
+      <c r="C154" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D154" s="37"/>
-      <c r="E154" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F154" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G154" s="31"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G154" s="26"/>
       <c r="H154" s="30"/>
       <c r="I154" s="30"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="45"/>
-      <c r="L154" s="46"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="38"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="50"/>
-      <c r="B155" s="51"/>
-      <c r="C155" s="52"/>
-      <c r="D155" s="53"/>
-      <c r="E155" s="52"/>
-      <c r="F155" s="52"/>
-      <c r="G155" s="52"/>
-      <c r="H155" s="54"/>
-      <c r="I155" s="54"/>
-      <c r="J155" s="54"/>
+      <c r="A155" s="42"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="45"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="46"/>
+      <c r="J155" s="46"/>
     </row>
     <row r="156" spans="7:7">
       <c r="G156" s="12"/>
@@ -8454,7 +8895,7 @@
   <sheetPr/>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -8465,7 +8906,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -8473,17 +8914,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -8517,33 +8958,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8553,7 +8994,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -8568,7 +9009,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="B4" s="4">
         <v>7</v>
@@ -8583,7 +9024,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -8592,23 +9033,23 @@
         <v>650</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="H5" s="4"/>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -8617,26 +9058,26 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="6" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="B7" s="4">
         <v>361</v>
@@ -8649,12 +9090,12 @@
       <c r="F7" s="4"/>
       <c r="H7" s="4"/>
       <c r="K7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -8663,25 +9104,25 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="H8" s="4"/>
       <c r="K8" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -8690,25 +9131,25 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="H9" s="4"/>
       <c r="K9" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B10" s="4">
         <v>11</v>
@@ -8721,12 +9162,12 @@
       <c r="F10" s="4"/>
       <c r="H10" s="4"/>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B11" s="4">
         <v>208</v>
@@ -8736,17 +9177,17 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F11" s="4"/>
       <c r="H11" s="4"/>
       <c r="K11" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -8755,22 +9196,22 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="H12" s="4"/>
       <c r="K12" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="B13" s="4">
         <v>5</v>
@@ -8779,24 +9220,24 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="K13" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -8805,12 +9246,12 @@
       <c r="F14" s="4"/>
       <c r="H14" s="4"/>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -8819,12 +9260,12 @@
       <c r="F15" s="4"/>
       <c r="H15" s="4"/>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -8833,12 +9274,12 @@
       <c r="F16" s="4"/>
       <c r="H16" s="4"/>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -8847,12 +9288,12 @@
       <c r="F17" s="4"/>
       <c r="H17" s="4"/>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -8861,12 +9302,12 @@
       <c r="F18" s="4"/>
       <c r="H18" s="4"/>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -8875,12 +9316,12 @@
       <c r="F19" s="4"/>
       <c r="H19" s="4"/>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -8889,12 +9330,12 @@
       <c r="F20" s="4"/>
       <c r="H20" s="4"/>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -8903,12 +9344,12 @@
       <c r="F21" s="4"/>
       <c r="H21" s="4"/>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -8917,12 +9358,12 @@
       <c r="F22" s="4"/>
       <c r="H22" s="4"/>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -8931,12 +9372,12 @@
       <c r="F23" s="4"/>
       <c r="H23" s="4"/>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -8945,12 +9386,12 @@
       <c r="F24" s="4"/>
       <c r="H24" s="4"/>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -8959,12 +9400,12 @@
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
       <c r="K25" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -8973,42 +9414,42 @@
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
       <c r="K26" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="11:11">
       <c r="K28" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="11:11">
       <c r="K29" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="11:11">
       <c r="K30" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="11:11">
       <c r="K31" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/windows/ProcessInjectionAndDetection.xlsx
+++ b/windows/ProcessInjectionAndDetection.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="248">
   <si>
     <t>进程注入/检测维度</t>
   </si>
@@ -335,10 +335,18 @@
     <t>ProcessOverwriting</t>
   </si>
   <si>
+    <t>https://github.com/hasherezade/process_overwriting</t>
+  </si>
+  <si>
     <t>run_pe</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>DLL</t>
     </r>
     <r>
@@ -363,6 +371,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>DLL</t>
     </r>
     <r>
@@ -376,6 +389,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>反射</t>
     </r>
     <r>
@@ -399,9 +417,15 @@
     <t>ModuleOverloading</t>
   </si>
   <si>
+    <t>https://github.com/hasherezade/module_overloading</t>
+  </si>
+  <si>
     <t>ModuleShifting</t>
   </si>
   <si>
+    <t>https://github.com/naksyn/ModuleShifting</t>
+  </si>
+  <si>
     <t>VadRemaping</t>
   </si>
   <si>
@@ -411,9 +435,16 @@
     <t>PythonMemoryModule</t>
   </si>
   <si>
+    <t>https://github.com/naksyn/PythonMemoryModule
+https://tishina.in/execution/python-inmemory-bof</t>
+  </si>
+  <si>
     <t>ReflectiveDLLInjection</t>
   </si>
   <si>
+    <t>https://github.com/SafeBreach-Labs/pinjectra/tree/master/Pinjector</t>
+  </si>
+  <si>
     <t>KnownDLLsCachePoisoning</t>
   </si>
   <si>
@@ -421,6 +452,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>VAD(VirtualAddressDescriptor)</t>
     </r>
     <r>
@@ -434,6 +470,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>ThreadLocalStorageInjection(TLS</t>
     </r>
     <r>
@@ -454,6 +495,9 @@
     </r>
   </si>
   <si>
+    <t>https://github.com/Maldev-Academy/RemoteTLSCallbackInjection</t>
+  </si>
+  <si>
     <t>ThreadExecutionHijacking</t>
   </si>
   <si>
@@ -464,6 +508,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>基于</t>
     </r>
     <r>
@@ -527,6 +576,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>GPU</t>
     </r>
     <r>
@@ -960,13 +1014,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -980,6 +1027,13 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1617,28 +1671,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1762,7 +1816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1977,7 +2031,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2515,15 +2581,15 @@
   <sheetPr codeName="检测能力表"/>
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.53333333333333" style="10" customWidth="1"/>
     <col min="2" max="2" width="21.847619047619" style="11" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="12" customWidth="1"/>
+    <col min="3" max="3" width="72" style="12" customWidth="1"/>
     <col min="4" max="4" width="16.4571428571429" style="12" customWidth="1"/>
     <col min="5" max="5" width="14.1619047619048" style="12" customWidth="1"/>
     <col min="10" max="10" width="19.4190476190476" customWidth="1"/>
@@ -4388,14 +4454,16 @@
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" ht="14.25" spans="1:8">
       <c r="A159" s="10">
         <v>29</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C159"/>
+      <c r="C159" s="72" t="s">
+        <v>100</v>
+      </c>
       <c r="D159"/>
       <c r="E159"/>
       <c r="G159" s="12"/>
@@ -4406,7 +4474,7 @@
         <v>30</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
@@ -4419,7 +4487,7 @@
         <v>31</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
@@ -4430,7 +4498,7 @@
         <v>32</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
@@ -4441,7 +4509,7 @@
         <v>33</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
@@ -4451,30 +4519,36 @@
       <c r="A164" s="10">
         <v>34</v>
       </c>
-      <c r="B164" s="72" t="s">
-        <v>104</v>
+      <c r="B164" s="73" t="s">
+        <v>105</v>
       </c>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" ht="14.25" spans="1:8">
       <c r="A165" s="10">
         <v>35</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="C165" s="74" t="s">
+        <v>107</v>
       </c>
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" ht="14.25" spans="1:8">
       <c r="A166" s="10">
         <v>36</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="C166" s="75" t="s">
+        <v>109</v>
       </c>
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
@@ -4485,7 +4559,7 @@
         <v>37</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
@@ -4496,18 +4570,21 @@
         <v>38</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" ht="28.5" spans="1:8">
       <c r="A169" s="10">
         <v>39</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="C169" s="76" t="s">
+        <v>113</v>
       </c>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
@@ -4518,7 +4595,10 @@
         <v>40</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="C170" s="75" t="s">
+        <v>115</v>
       </c>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
@@ -4529,7 +4609,7 @@
         <v>41</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
@@ -4540,7 +4620,7 @@
         <v>42</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
@@ -4551,7 +4631,7 @@
         <v>43</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
@@ -4562,7 +4642,10 @@
         <v>44</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="C174" s="75" t="s">
+        <v>120</v>
       </c>
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
@@ -4573,7 +4656,7 @@
         <v>45</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
@@ -4584,7 +4667,7 @@
         <v>46</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
@@ -4595,7 +4678,7 @@
         <v>47</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
@@ -4605,8 +4688,8 @@
       <c r="A178" s="10">
         <v>48</v>
       </c>
-      <c r="B178" s="72" t="s">
-        <v>118</v>
+      <c r="B178" s="73" t="s">
+        <v>124</v>
       </c>
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
@@ -4617,7 +4700,7 @@
         <v>49</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -4628,7 +4711,7 @@
         <v>50</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -4639,7 +4722,7 @@
         <v>51</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -4650,7 +4733,7 @@
         <v>52</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -4661,7 +4744,7 @@
         <v>53</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -4671,8 +4754,8 @@
       <c r="A184" s="10">
         <v>54</v>
       </c>
-      <c r="B184" s="72" t="s">
-        <v>124</v>
+      <c r="B184" s="73" t="s">
+        <v>130</v>
       </c>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -4683,7 +4766,7 @@
         <v>55</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
@@ -4694,7 +4777,7 @@
         <v>56</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
@@ -4705,7 +4788,7 @@
         <v>57</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
@@ -4716,7 +4799,7 @@
         <v>59</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
@@ -4727,7 +4810,7 @@
         <v>60</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
@@ -4738,7 +4821,7 @@
         <v>61</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
@@ -4749,7 +4832,7 @@
         <v>62</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
@@ -4759,8 +4842,8 @@
       <c r="A192" s="10">
         <v>63</v>
       </c>
-      <c r="B192" s="72" t="s">
-        <v>132</v>
+      <c r="B192" s="73" t="s">
+        <v>138</v>
       </c>
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
@@ -4771,7 +4854,7 @@
         <v>64</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
@@ -4782,7 +4865,7 @@
         <v>65</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
@@ -4792,8 +4875,8 @@
       <c r="A195" s="10">
         <v>66</v>
       </c>
-      <c r="B195" s="72" t="s">
-        <v>135</v>
+      <c r="B195" s="73" t="s">
+        <v>141</v>
       </c>
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
@@ -4804,7 +4887,7 @@
         <v>67</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
@@ -4815,7 +4898,7 @@
         <v>68</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
@@ -4826,7 +4909,7 @@
         <v>69</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
@@ -4975,6 +5058,14 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H133:H136"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C159" r:id="rId1" display="https://github.com/hasherezade/process_overwriting"/>
+    <hyperlink ref="C165" r:id="rId2" display="https://github.com/hasherezade/module_overloading" tooltip="https://github.com/hasherezade/module_overloading"/>
+    <hyperlink ref="C166" r:id="rId3" display="https://github.com/naksyn/ModuleShifting" tooltip="https://github.com/naksyn/ModuleShifting"/>
+    <hyperlink ref="C169" r:id="rId4" display="https://github.com/naksyn/PythonMemoryModule&#10;https://tishina.in/execution/python-inmemory-bof"/>
+    <hyperlink ref="C170" r:id="rId5" display="https://github.com/SafeBreach-Labs/pinjectra/tree/master/Pinjector"/>
+    <hyperlink ref="C174" r:id="rId6" display="https://github.com/Maldev-Academy/RemoteTLSCallbackInjection"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5010,27 +5101,27 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L1" s="19"/>
       <c r="M1"/>
@@ -5047,25 +5138,25 @@
         <v>8</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="35" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M2"/>
       <c r="N2" s="37"/>
@@ -5081,20 +5172,20 @@
         <v>12</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="29" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="30"/>
@@ -5108,14 +5199,14 @@
         <v>14</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
@@ -5131,25 +5222,25 @@
         <v>16</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M5"/>
     </row>
@@ -5160,13 +5251,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="30"/>
@@ -5186,20 +5277,20 @@
         <v>19</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="30"/>
@@ -5219,14 +5310,14 @@
         <v>21</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -5249,14 +5340,14 @@
         <v>22</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -5279,14 +5370,14 @@
         <v>14</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -5309,25 +5400,25 @@
         <v>16</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -5345,25 +5436,25 @@
         <v>23</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -5381,14 +5472,14 @@
         <v>24</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -5415,20 +5506,20 @@
         <v>12</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="30"/>
@@ -5449,14 +5540,14 @@
         <v>14</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -5479,25 +5570,25 @@
         <v>16</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -5515,7 +5606,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -5541,7 +5632,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -5567,13 +5658,13 @@
         <v>17</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="30"/>
@@ -5603,14 +5694,14 @@
       <c r="D20" s="32"/>
       <c r="E20" s="26"/>
       <c r="F20" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="30"/>
@@ -5633,7 +5724,7 @@
       <c r="D21" s="32"/>
       <c r="E21" s="26"/>
       <c r="F21" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="30"/>
@@ -5657,11 +5748,11 @@
         <v>31</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="30"/>
@@ -5679,7 +5770,7 @@
       <c r="D23" s="32"/>
       <c r="E23" s="26"/>
       <c r="F23" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="30"/>
@@ -5697,7 +5788,7 @@
       <c r="D24" s="32"/>
       <c r="E24" s="26"/>
       <c r="F24" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="30"/>
@@ -5713,14 +5804,14 @@
         <v>34</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
@@ -5735,25 +5826,25 @@
         <v>35</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5765,7 +5856,7 @@
       <c r="D27" s="32"/>
       <c r="E27" s="26"/>
       <c r="F27" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="30"/>
@@ -5781,13 +5872,13 @@
         <v>37</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="30"/>
@@ -5803,13 +5894,13 @@
         <v>38</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="30"/>
@@ -5831,14 +5922,14 @@
       <c r="D30" s="32"/>
       <c r="E30" s="26"/>
       <c r="F30" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="30"/>
@@ -5851,11 +5942,11 @@
         <v>31</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="30"/>
@@ -5873,7 +5964,7 @@
       <c r="D32" s="32"/>
       <c r="E32" s="26"/>
       <c r="F32" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="30"/>
@@ -5891,7 +5982,7 @@
       <c r="D33" s="32"/>
       <c r="E33" s="26"/>
       <c r="F33" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G33" s="26"/>
       <c r="H33" s="30"/>
@@ -5907,13 +5998,13 @@
         <v>19</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="30"/>
@@ -5929,14 +6020,14 @@
         <v>40</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -5951,22 +6042,22 @@
         <v>23</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="J36" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L36" s="38"/>
     </row>
@@ -5977,14 +6068,14 @@
         <v>24</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
@@ -6005,14 +6096,14 @@
       <c r="D38" s="32"/>
       <c r="E38" s="26"/>
       <c r="F38" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="30"/>
@@ -6027,7 +6118,7 @@
       <c r="D39" s="32"/>
       <c r="E39" s="26"/>
       <c r="F39" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G39" s="26"/>
       <c r="H39" s="30"/>
@@ -6043,11 +6134,11 @@
         <v>31</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="30"/>
@@ -6063,11 +6154,11 @@
         <v>37</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="30"/>
@@ -6085,7 +6176,7 @@
       <c r="D42" s="32"/>
       <c r="E42" s="26"/>
       <c r="F42" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G42" s="26"/>
       <c r="H42" s="30"/>
@@ -6101,14 +6192,14 @@
         <v>34</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -6123,25 +6214,25 @@
         <v>35</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
       <c r="J44" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -6152,10 +6243,10 @@
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="30"/>
@@ -6171,13 +6262,13 @@
         <v>38</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="30"/>
@@ -6198,15 +6289,15 @@
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="30"/>
@@ -6221,7 +6312,7 @@
       <c r="D48" s="32"/>
       <c r="E48" s="26"/>
       <c r="F48" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="30"/>
@@ -6237,11 +6328,11 @@
         <v>31</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="30"/>
@@ -6257,13 +6348,13 @@
         <v>19</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="30"/>
@@ -6279,14 +6370,14 @@
         <v>40</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
@@ -6301,22 +6392,22 @@
         <v>23</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
       <c r="J52" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K52" s="41" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L52" s="38"/>
     </row>
@@ -6327,14 +6418,14 @@
         <v>24</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
@@ -6354,17 +6445,17 @@
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J54" s="29"/>
       <c r="K54" s="30"/>
@@ -6377,11 +6468,11 @@
         <v>31</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E55" s="26"/>
       <c r="F55" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G55" s="26"/>
       <c r="H55" s="30"/>
@@ -6397,13 +6488,13 @@
         <v>37</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="30"/>
@@ -6421,7 +6512,7 @@
       <c r="D57" s="32"/>
       <c r="E57" s="26"/>
       <c r="F57" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="30"/>
@@ -6438,10 +6529,10 @@
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G58" s="26"/>
       <c r="H58" s="30"/>
@@ -6459,7 +6550,7 @@
       <c r="D59" s="32"/>
       <c r="E59" s="26"/>
       <c r="F59" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G59" s="26"/>
       <c r="H59" s="30"/>
@@ -6475,25 +6566,25 @@
         <v>35</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E60" s="26"/>
       <c r="F60" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K60" s="29" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L60" s="38" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -6503,14 +6594,14 @@
         <v>34</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E61" s="26"/>
       <c r="F61" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
@@ -6529,17 +6620,17 @@
         <v>12</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="29" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I62" s="29">
         <v>3</v>
@@ -6555,14 +6646,14 @@
         <v>14</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E63" s="26"/>
       <c r="F63" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
@@ -6577,25 +6668,25 @@
         <v>16</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
       <c r="J64" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K64" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L64" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6605,13 +6696,13 @@
         <v>49</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G65" s="26"/>
       <c r="H65" s="30"/>
@@ -6627,25 +6718,25 @@
         <v>50</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E66" s="26"/>
       <c r="F66" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
       <c r="J66" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K66" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L66" s="38" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6659,20 +6750,20 @@
         <v>12</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G67" s="26"/>
       <c r="H67" s="24" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J67" s="29"/>
       <c r="K67" s="30"/>
@@ -6685,13 +6776,13 @@
         <v>52</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G68" s="26"/>
       <c r="H68" s="30"/>
@@ -6707,7 +6798,7 @@
         <v>53</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
@@ -6725,11 +6816,11 @@
         <v>54</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G70" s="26"/>
       <c r="H70" s="30"/>
@@ -6749,17 +6840,17 @@
         <v>19</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G71" s="26"/>
       <c r="H71" s="24" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I71" s="29">
         <v>3</v>
@@ -6775,14 +6866,14 @@
         <v>14</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
@@ -6797,25 +6888,25 @@
         <v>16</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H73" s="30"/>
       <c r="I73" s="30"/>
       <c r="J73" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K73" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -6825,14 +6916,14 @@
         <v>56</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E74" s="26"/>
       <c r="F74" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H74" s="30"/>
       <c r="I74" s="30"/>
@@ -6847,22 +6938,22 @@
         <v>23</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H75" s="30"/>
       <c r="I75" s="30"/>
       <c r="J75" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K75" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L75" s="38"/>
     </row>
@@ -6873,14 +6964,14 @@
         <v>24</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H76" s="30"/>
       <c r="I76" s="30"/>
@@ -6899,20 +6990,20 @@
         <v>12</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G77" s="26"/>
       <c r="H77" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J77" s="29"/>
       <c r="K77" s="30"/>
@@ -6925,14 +7016,14 @@
         <v>14</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E78" s="26"/>
       <c r="F78" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H78" s="30"/>
       <c r="I78" s="30"/>
@@ -6949,7 +7040,7 @@
       <c r="D79" s="32"/>
       <c r="E79" s="26"/>
       <c r="F79" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G79" s="26"/>
       <c r="H79" s="30"/>
@@ -6965,14 +7056,14 @@
         <v>21</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E80" s="26"/>
       <c r="F80" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H80" s="30"/>
       <c r="I80" s="30"/>
@@ -6987,25 +7078,25 @@
         <v>16</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H81" s="30"/>
       <c r="I81" s="30"/>
       <c r="J81" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K81" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -7015,7 +7106,7 @@
         <v>59</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
@@ -7037,20 +7128,20 @@
         <v>12</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F83" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G83" s="26"/>
       <c r="H83" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I83" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J83" s="29"/>
       <c r="K83" s="30"/>
@@ -7065,7 +7156,7 @@
       <c r="D84" s="32"/>
       <c r="E84" s="26"/>
       <c r="F84" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G84" s="26"/>
       <c r="H84" s="30"/>
@@ -7081,14 +7172,14 @@
         <v>21</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E85" s="26"/>
       <c r="F85" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H85" s="30"/>
       <c r="I85" s="30"/>
@@ -7103,14 +7194,14 @@
         <v>14</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H86" s="30"/>
       <c r="I86" s="30"/>
@@ -7125,25 +7216,25 @@
         <v>16</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E87" s="26"/>
       <c r="F87" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H87" s="30"/>
       <c r="I87" s="30"/>
       <c r="J87" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K87" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L87" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -7155,7 +7246,7 @@
       <c r="D88" s="32"/>
       <c r="E88" s="26"/>
       <c r="F88" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G88" s="26"/>
       <c r="H88" s="30"/>
@@ -7171,7 +7262,7 @@
         <v>62</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
@@ -7195,14 +7286,14 @@
       <c r="D90" s="32"/>
       <c r="E90" s="26"/>
       <c r="F90" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G90" s="26"/>
       <c r="H90" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I90" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J90" s="29"/>
       <c r="K90" s="30"/>
@@ -7215,13 +7306,13 @@
         <v>12</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F91" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G91" s="26"/>
       <c r="H91" s="30"/>
@@ -7237,14 +7328,14 @@
         <v>21</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E92" s="26"/>
       <c r="F92" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H92" s="30"/>
       <c r="I92" s="30"/>
@@ -7259,14 +7350,14 @@
         <v>14</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E93" s="26"/>
       <c r="F93" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H93" s="30"/>
       <c r="I93" s="30"/>
@@ -7281,25 +7372,25 @@
         <v>16</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E94" s="26"/>
       <c r="F94" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H94" s="30"/>
       <c r="I94" s="30"/>
       <c r="J94" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K94" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L94" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -7311,7 +7402,7 @@
       <c r="D95" s="32"/>
       <c r="E95" s="26"/>
       <c r="F95" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G95" s="26"/>
       <c r="H95" s="30"/>
@@ -7327,11 +7418,11 @@
         <v>62</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E96" s="26"/>
       <c r="F96" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G96" s="26"/>
       <c r="H96" s="30"/>
@@ -7351,20 +7442,20 @@
         <v>12</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F97" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G97" s="26"/>
       <c r="H97" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I97" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J97" s="29"/>
       <c r="K97" s="30"/>
@@ -7379,7 +7470,7 @@
       <c r="D98" s="32"/>
       <c r="E98" s="26"/>
       <c r="F98" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G98" s="26"/>
       <c r="H98" s="30"/>
@@ -7395,14 +7486,14 @@
         <v>14</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H99" s="30"/>
       <c r="I99" s="30"/>
@@ -7417,25 +7508,25 @@
         <v>16</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H100" s="30"/>
       <c r="I100" s="30"/>
       <c r="J100" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K100" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L100" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -7465,17 +7556,17 @@
         <v>12</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F102" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G102" s="26"/>
       <c r="H102" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I102" s="29">
         <v>3</v>
@@ -7493,7 +7584,7 @@
       <c r="D103" s="32"/>
       <c r="E103" s="26"/>
       <c r="F103" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G103" s="26"/>
       <c r="H103" s="30"/>
@@ -7509,14 +7600,14 @@
         <v>21</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H104" s="30"/>
       <c r="I104" s="30"/>
@@ -7531,14 +7622,14 @@
         <v>14</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E105" s="26"/>
       <c r="F105" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H105" s="30"/>
       <c r="I105" s="30"/>
@@ -7553,25 +7644,25 @@
         <v>16</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E106" s="26"/>
       <c r="F106" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H106" s="30"/>
       <c r="I106" s="30"/>
       <c r="J106" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K106" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L106" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -7601,20 +7692,20 @@
         <v>12</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F108" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G108" s="26"/>
       <c r="H108" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I108" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J108" s="29"/>
       <c r="K108" s="30"/>
@@ -7627,14 +7718,14 @@
         <v>14</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E109" s="26"/>
       <c r="F109" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H109" s="30"/>
       <c r="I109" s="30"/>
@@ -7649,25 +7740,25 @@
         <v>16</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H110" s="30"/>
       <c r="I110" s="30"/>
       <c r="J110" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K110" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L110" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -7713,20 +7804,20 @@
         <v>12</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G113" s="26"/>
       <c r="H113" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I113" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J113" s="29"/>
       <c r="K113" s="30"/>
@@ -7739,14 +7830,14 @@
         <v>14</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E114" s="26"/>
       <c r="F114" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H114" s="30"/>
       <c r="I114" s="30"/>
@@ -7761,25 +7852,25 @@
         <v>16</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H115" s="30"/>
       <c r="I115" s="30"/>
       <c r="J115" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K115" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L115" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -7841,20 +7932,20 @@
         <v>12</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F119" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G119" s="26"/>
       <c r="H119" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I119" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J119" s="29"/>
       <c r="K119" s="30"/>
@@ -7869,7 +7960,7 @@
       <c r="D120" s="32"/>
       <c r="E120" s="26"/>
       <c r="F120" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G120" s="26"/>
       <c r="H120" s="30"/>
@@ -7902,10 +7993,10 @@
       </c>
       <c r="D122" s="32"/>
       <c r="E122" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F122" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G122" s="26"/>
       <c r="H122" s="30"/>
@@ -7921,14 +8012,14 @@
         <v>14</v>
       </c>
       <c r="D123" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E123" s="26"/>
       <c r="F123" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H123" s="30"/>
       <c r="I123" s="30"/>
@@ -7943,25 +8034,25 @@
         <v>16</v>
       </c>
       <c r="D124" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E124" s="26"/>
       <c r="F124" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H124" s="30"/>
       <c r="I124" s="30"/>
       <c r="J124" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K124" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L124" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -7973,7 +8064,7 @@
       <c r="D125" s="32"/>
       <c r="E125" s="26"/>
       <c r="F125" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G125" s="26"/>
       <c r="H125" s="30"/>
@@ -7991,7 +8082,7 @@
       <c r="D126" s="32"/>
       <c r="E126" s="26"/>
       <c r="F126" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G126" s="26"/>
       <c r="H126" s="30"/>
@@ -8009,7 +8100,7 @@
       <c r="D127" s="32"/>
       <c r="E127" s="26"/>
       <c r="F127" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G127" s="26"/>
       <c r="H127" s="30"/>
@@ -8027,7 +8118,7 @@
       <c r="D128" s="32"/>
       <c r="E128" s="26"/>
       <c r="F128" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G128" s="26"/>
       <c r="H128" s="30"/>
@@ -8045,7 +8136,7 @@
       <c r="D129" s="32"/>
       <c r="E129" s="26"/>
       <c r="F129" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G129" s="26"/>
       <c r="H129" s="30"/>
@@ -8063,7 +8154,7 @@
       <c r="D130" s="32"/>
       <c r="E130" s="26"/>
       <c r="F130" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G130" s="26"/>
       <c r="H130" s="30"/>
@@ -8081,7 +8172,7 @@
       <c r="D131" s="32"/>
       <c r="E131" s="26"/>
       <c r="F131" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G131" s="26"/>
       <c r="H131" s="30"/>
@@ -8099,7 +8190,7 @@
       <c r="D132" s="32"/>
       <c r="E132" s="26"/>
       <c r="F132" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G132" s="26"/>
       <c r="H132" s="30"/>
@@ -8119,17 +8210,17 @@
         <v>12</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F133" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G133" s="26"/>
       <c r="H133" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I133" s="29">
         <v>3</v>
@@ -8145,14 +8236,14 @@
         <v>14</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E134" s="26"/>
       <c r="F134" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H134" s="30"/>
       <c r="I134" s="30"/>
@@ -8167,14 +8258,14 @@
         <v>86</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E135" s="26"/>
       <c r="F135" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G135" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H135" s="30"/>
       <c r="I135" s="30"/>
@@ -8189,25 +8280,25 @@
         <v>16</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E136" s="26"/>
       <c r="F136" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G136" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H136" s="30"/>
       <c r="I136" s="30"/>
       <c r="J136" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K136" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -8225,10 +8316,10 @@
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
       <c r="H137" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I137" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J137" s="29"/>
       <c r="K137" s="30"/>
@@ -8243,7 +8334,7 @@
       <c r="D138" s="32"/>
       <c r="E138" s="26"/>
       <c r="F138" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G138" s="26"/>
       <c r="H138" s="30"/>
@@ -8259,13 +8350,13 @@
         <v>12</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F139" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G139" s="26"/>
       <c r="H139" s="30"/>
@@ -8283,7 +8374,7 @@
       <c r="D140" s="32"/>
       <c r="E140" s="26"/>
       <c r="F140" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G140" s="26"/>
       <c r="H140" s="30"/>
@@ -8300,10 +8391,10 @@
       </c>
       <c r="D141" s="32"/>
       <c r="E141" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F141" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G141" s="26"/>
       <c r="H141" s="30"/>
@@ -8323,17 +8414,17 @@
         <v>19</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F142" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G142" s="26"/>
       <c r="H142" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I142" s="29">
         <v>3</v>
@@ -8351,10 +8442,10 @@
       <c r="D143" s="32"/>
       <c r="E143" s="26"/>
       <c r="F143" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G143" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H143" s="30"/>
       <c r="I143" s="30"/>
@@ -8369,14 +8460,14 @@
         <v>21</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E144" s="26"/>
       <c r="F144" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G144" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H144" s="30"/>
       <c r="I144" s="30"/>
@@ -8391,25 +8482,25 @@
         <v>16</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E145" s="26"/>
       <c r="F145" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G145" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H145" s="30"/>
       <c r="I145" s="30"/>
       <c r="J145" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K145" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L145" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -8419,14 +8510,14 @@
         <v>86</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E146" s="26"/>
       <c r="F146" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G146" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H146" s="30"/>
       <c r="I146" s="30"/>
@@ -8441,14 +8532,14 @@
         <v>24</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E147" s="26"/>
       <c r="F147" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G147" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H147" s="30"/>
       <c r="I147" s="30"/>
@@ -8467,20 +8558,20 @@
         <v>19</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E148" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F148" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G148" s="26"/>
       <c r="H148" s="29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I148" s="29" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J148" s="29"/>
       <c r="K148" s="30"/>
@@ -8493,25 +8584,25 @@
         <v>35</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E149" s="26"/>
       <c r="F149" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G149" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H149" s="30"/>
       <c r="I149" s="30"/>
       <c r="J149" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K149" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L149" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -8521,13 +8612,13 @@
         <v>17</v>
       </c>
       <c r="D150" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E150" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F150" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G150" s="26"/>
       <c r="H150" s="30"/>
@@ -8547,20 +8638,20 @@
         <v>12</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G151" s="26"/>
       <c r="H151" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I151" s="29" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J151" s="29"/>
       <c r="K151" s="30"/>
@@ -8573,14 +8664,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E152" s="26"/>
       <c r="F152" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G152" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H152" s="30"/>
       <c r="I152" s="30"/>
@@ -8595,25 +8686,25 @@
         <v>16</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E153" s="26"/>
       <c r="F153" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G153" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H153" s="30"/>
       <c r="I153" s="30"/>
       <c r="J153" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K153" s="29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L153" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -8624,10 +8715,10 @@
       </c>
       <c r="D154" s="32"/>
       <c r="E154" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G154" s="26"/>
       <c r="H154" s="30"/>
@@ -8906,7 +8997,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -8914,17 +9005,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -8958,33 +9049,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8994,7 +9085,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -9009,7 +9100,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B4" s="4">
         <v>7</v>
@@ -9024,7 +9115,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -9033,23 +9124,23 @@
         <v>650</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H5" s="4"/>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -9058,26 +9149,26 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B7" s="4">
         <v>361</v>
@@ -9090,12 +9181,12 @@
       <c r="F7" s="4"/>
       <c r="H7" s="4"/>
       <c r="K7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -9104,25 +9195,25 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H8" s="4"/>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -9131,25 +9222,25 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H9" s="4"/>
       <c r="K9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B10" s="4">
         <v>11</v>
@@ -9162,12 +9253,12 @@
       <c r="F10" s="4"/>
       <c r="H10" s="4"/>
       <c r="K10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B11" s="4">
         <v>208</v>
@@ -9177,17 +9268,17 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F11" s="4"/>
       <c r="H11" s="4"/>
       <c r="K11" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -9196,22 +9287,22 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G12" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H12" s="4"/>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B13" s="4">
         <v>5</v>
@@ -9220,24 +9311,24 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K13" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -9246,12 +9337,12 @@
       <c r="F14" s="4"/>
       <c r="H14" s="4"/>
       <c r="K14" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -9260,12 +9351,12 @@
       <c r="F15" s="4"/>
       <c r="H15" s="4"/>
       <c r="K15" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -9274,12 +9365,12 @@
       <c r="F16" s="4"/>
       <c r="H16" s="4"/>
       <c r="K16" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -9288,12 +9379,12 @@
       <c r="F17" s="4"/>
       <c r="H17" s="4"/>
       <c r="K17" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -9302,12 +9393,12 @@
       <c r="F18" s="4"/>
       <c r="H18" s="4"/>
       <c r="K18" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -9316,12 +9407,12 @@
       <c r="F19" s="4"/>
       <c r="H19" s="4"/>
       <c r="K19" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -9330,12 +9421,12 @@
       <c r="F20" s="4"/>
       <c r="H20" s="4"/>
       <c r="K20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -9344,12 +9435,12 @@
       <c r="F21" s="4"/>
       <c r="H21" s="4"/>
       <c r="K21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -9358,12 +9449,12 @@
       <c r="F22" s="4"/>
       <c r="H22" s="4"/>
       <c r="K22" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -9372,12 +9463,12 @@
       <c r="F23" s="4"/>
       <c r="H23" s="4"/>
       <c r="K23" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -9386,12 +9477,12 @@
       <c r="F24" s="4"/>
       <c r="H24" s="4"/>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -9400,12 +9491,12 @@
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -9414,42 +9505,42 @@
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="11:11">
       <c r="K28" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="11:11">
       <c r="K29" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="11:11">
       <c r="K30" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="11:11">
       <c r="K31" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/windows/ProcessInjectionAndDetection.xlsx
+++ b/windows/ProcessInjectionAndDetection.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="254">
   <si>
     <t>进程注入/检测维度</t>
   </si>
@@ -504,7 +504,13 @@
     <t>EarlyBirdAPCInjection</t>
   </si>
   <si>
+    <t>https://github.com/Faran-17/EarlyBird-APC-Injection</t>
+  </si>
+  <si>
     <t>WindowsFibersInjection</t>
+  </si>
+  <si>
+    <t>https://www.ired.team/offensive-security/code-injection-process-injection/executing-shellcode-with-createfiber</t>
   </si>
   <si>
     <r>
@@ -542,13 +548,26 @@
     <t>InstrumentationCallbackInjection</t>
   </si>
   <si>
+    <t>https://github.com/paranoidninja/Process-Instrumentation-Syscal-Hook
+https://github.com/ionescu007/HookingNirvana/tree/master</t>
+  </si>
+  <si>
     <t>WNFCallback</t>
   </si>
   <si>
+    <t>https://github.com/odzhan/injection/tree/master/wnf</t>
+  </si>
+  <si>
     <t>ServiceControl</t>
   </si>
   <si>
+    <t>https://github.com/odzhan/injection/tree/master/svcctrl</t>
+  </si>
+  <si>
     <t>窗口类Eminject</t>
+  </si>
+  <si>
+    <t>https://github.com/doanhnhq-uit/injection-1/tree/master/eminject</t>
   </si>
   <si>
     <t>TooltipOrCommonControls</t>
@@ -1816,7 +1835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2044,6 +2063,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2581,15 +2603,15 @@
   <sheetPr codeName="检测能力表"/>
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.53333333333333" style="10" customWidth="1"/>
     <col min="2" max="2" width="21.847619047619" style="11" customWidth="1"/>
-    <col min="3" max="3" width="72" style="12" customWidth="1"/>
+    <col min="3" max="3" width="119.142857142857" style="12" customWidth="1"/>
     <col min="4" max="4" width="16.4571428571429" style="12" customWidth="1"/>
     <col min="5" max="5" width="14.1619047619048" style="12" customWidth="1"/>
     <col min="10" max="10" width="19.4190476190476" customWidth="1"/>
@@ -4662,12 +4684,15 @@
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" ht="14.25" spans="1:8">
       <c r="A176" s="10">
         <v>46</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>122</v>
+      </c>
+      <c r="C176" s="75" t="s">
+        <v>123</v>
       </c>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
@@ -4678,7 +4703,10 @@
         <v>47</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="C177" s="75" t="s">
+        <v>125</v>
       </c>
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
@@ -4689,7 +4717,7 @@
         <v>48</v>
       </c>
       <c r="B178" s="73" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
@@ -4700,7 +4728,7 @@
         <v>49</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -4711,7 +4739,7 @@
         <v>50</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -4722,40 +4750,52 @@
         <v>51</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="C181" s="77" t="s">
+        <v>130</v>
       </c>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" ht="14.25" spans="1:8">
       <c r="A182" s="10">
         <v>52</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="C182" s="75" t="s">
+        <v>132</v>
       </c>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" ht="14.25" spans="1:8">
       <c r="A183" s="10">
         <v>53</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="C183" s="75" t="s">
+        <v>134</v>
       </c>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" ht="14.25" spans="1:8">
       <c r="A184" s="10">
         <v>54</v>
       </c>
       <c r="B184" s="73" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="C184" s="75" t="s">
+        <v>136</v>
       </c>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -4766,7 +4806,7 @@
         <v>55</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
@@ -4777,7 +4817,7 @@
         <v>56</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
@@ -4788,7 +4828,7 @@
         <v>57</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
@@ -4799,7 +4839,7 @@
         <v>59</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
@@ -4810,7 +4850,7 @@
         <v>60</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
@@ -4821,7 +4861,7 @@
         <v>61</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
@@ -4832,7 +4872,7 @@
         <v>62</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
@@ -4843,7 +4883,7 @@
         <v>63</v>
       </c>
       <c r="B192" s="73" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
@@ -4854,7 +4894,7 @@
         <v>64</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
@@ -4865,7 +4905,7 @@
         <v>65</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
@@ -4876,7 +4916,7 @@
         <v>66</v>
       </c>
       <c r="B195" s="73" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
@@ -4887,7 +4927,7 @@
         <v>67</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
@@ -4898,7 +4938,7 @@
         <v>68</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
@@ -4909,7 +4949,7 @@
         <v>69</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
@@ -5065,6 +5105,11 @@
     <hyperlink ref="C169" r:id="rId4" display="https://github.com/naksyn/PythonMemoryModule&#10;https://tishina.in/execution/python-inmemory-bof"/>
     <hyperlink ref="C170" r:id="rId5" display="https://github.com/SafeBreach-Labs/pinjectra/tree/master/Pinjector"/>
     <hyperlink ref="C174" r:id="rId6" display="https://github.com/Maldev-Academy/RemoteTLSCallbackInjection"/>
+    <hyperlink ref="C176" r:id="rId7" display="https://github.com/Faran-17/EarlyBird-APC-Injection"/>
+    <hyperlink ref="C177" r:id="rId8" display="https://www.ired.team/offensive-security/code-injection-process-injection/executing-shellcode-with-createfiber"/>
+    <hyperlink ref="C182" r:id="rId9" display="https://github.com/odzhan/injection/tree/master/wnf"/>
+    <hyperlink ref="C183" r:id="rId10" display="https://github.com/odzhan/injection/tree/master/svcctrl"/>
+    <hyperlink ref="C184" r:id="rId11" display="https://github.com/doanhnhq-uit/injection-1/tree/master/eminject"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5101,27 +5146,27 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L1" s="19"/>
       <c r="M1"/>
@@ -5138,25 +5183,25 @@
         <v>8</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="35" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M2"/>
       <c r="N2" s="37"/>
@@ -5172,20 +5217,20 @@
         <v>12</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="30"/>
@@ -5199,14 +5244,14 @@
         <v>14</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
@@ -5222,25 +5267,25 @@
         <v>16</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M5"/>
     </row>
@@ -5251,13 +5296,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="30"/>
@@ -5277,20 +5322,20 @@
         <v>19</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="29" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="30"/>
@@ -5310,14 +5355,14 @@
         <v>21</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -5340,14 +5385,14 @@
         <v>22</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -5370,14 +5415,14 @@
         <v>14</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -5400,25 +5445,25 @@
         <v>16</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -5436,25 +5481,25 @@
         <v>23</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -5472,14 +5517,14 @@
         <v>24</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -5506,20 +5551,20 @@
         <v>12</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="29" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="30"/>
@@ -5540,14 +5585,14 @@
         <v>14</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -5570,25 +5615,25 @@
         <v>16</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -5606,7 +5651,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -5632,7 +5677,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -5658,13 +5703,13 @@
         <v>17</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="30"/>
@@ -5694,14 +5739,14 @@
       <c r="D20" s="32"/>
       <c r="E20" s="26"/>
       <c r="F20" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="29" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="30"/>
@@ -5724,7 +5769,7 @@
       <c r="D21" s="32"/>
       <c r="E21" s="26"/>
       <c r="F21" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="30"/>
@@ -5748,11 +5793,11 @@
         <v>31</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="30"/>
@@ -5770,7 +5815,7 @@
       <c r="D23" s="32"/>
       <c r="E23" s="26"/>
       <c r="F23" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="30"/>
@@ -5788,7 +5833,7 @@
       <c r="D24" s="32"/>
       <c r="E24" s="26"/>
       <c r="F24" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="30"/>
@@ -5804,14 +5849,14 @@
         <v>34</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
@@ -5826,25 +5871,25 @@
         <v>35</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5856,7 +5901,7 @@
       <c r="D27" s="32"/>
       <c r="E27" s="26"/>
       <c r="F27" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="30"/>
@@ -5872,13 +5917,13 @@
         <v>37</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="30"/>
@@ -5894,13 +5939,13 @@
         <v>38</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="30"/>
@@ -5922,14 +5967,14 @@
       <c r="D30" s="32"/>
       <c r="E30" s="26"/>
       <c r="F30" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="29" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="30"/>
@@ -5942,11 +5987,11 @@
         <v>31</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="30"/>
@@ -5964,7 +6009,7 @@
       <c r="D32" s="32"/>
       <c r="E32" s="26"/>
       <c r="F32" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="30"/>
@@ -5982,7 +6027,7 @@
       <c r="D33" s="32"/>
       <c r="E33" s="26"/>
       <c r="F33" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G33" s="26"/>
       <c r="H33" s="30"/>
@@ -5998,13 +6043,13 @@
         <v>19</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="30"/>
@@ -6020,14 +6065,14 @@
         <v>40</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -6042,22 +6087,22 @@
         <v>23</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="J36" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L36" s="38"/>
     </row>
@@ -6068,14 +6113,14 @@
         <v>24</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
@@ -6096,14 +6141,14 @@
       <c r="D38" s="32"/>
       <c r="E38" s="26"/>
       <c r="F38" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="29" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="30"/>
@@ -6118,7 +6163,7 @@
       <c r="D39" s="32"/>
       <c r="E39" s="26"/>
       <c r="F39" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G39" s="26"/>
       <c r="H39" s="30"/>
@@ -6134,11 +6179,11 @@
         <v>31</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="30"/>
@@ -6154,11 +6199,11 @@
         <v>37</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="30"/>
@@ -6176,7 +6221,7 @@
       <c r="D42" s="32"/>
       <c r="E42" s="26"/>
       <c r="F42" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G42" s="26"/>
       <c r="H42" s="30"/>
@@ -6192,14 +6237,14 @@
         <v>34</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -6214,25 +6259,25 @@
         <v>35</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
       <c r="J44" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -6243,10 +6288,10 @@
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="30"/>
@@ -6262,13 +6307,13 @@
         <v>38</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="30"/>
@@ -6289,15 +6334,15 @@
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="29" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="30"/>
@@ -6312,7 +6357,7 @@
       <c r="D48" s="32"/>
       <c r="E48" s="26"/>
       <c r="F48" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="30"/>
@@ -6328,11 +6373,11 @@
         <v>31</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="30"/>
@@ -6348,13 +6393,13 @@
         <v>19</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="30"/>
@@ -6370,14 +6415,14 @@
         <v>40</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
@@ -6392,22 +6437,22 @@
         <v>23</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
       <c r="J52" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K52" s="41" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L52" s="38"/>
     </row>
@@ -6418,14 +6463,14 @@
         <v>24</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
@@ -6445,17 +6490,17 @@
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="29" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J54" s="29"/>
       <c r="K54" s="30"/>
@@ -6468,11 +6513,11 @@
         <v>31</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E55" s="26"/>
       <c r="F55" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G55" s="26"/>
       <c r="H55" s="30"/>
@@ -6488,13 +6533,13 @@
         <v>37</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="30"/>
@@ -6512,7 +6557,7 @@
       <c r="D57" s="32"/>
       <c r="E57" s="26"/>
       <c r="F57" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="30"/>
@@ -6529,10 +6574,10 @@
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G58" s="26"/>
       <c r="H58" s="30"/>
@@ -6550,7 +6595,7 @@
       <c r="D59" s="32"/>
       <c r="E59" s="26"/>
       <c r="F59" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G59" s="26"/>
       <c r="H59" s="30"/>
@@ -6566,25 +6611,25 @@
         <v>35</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E60" s="26"/>
       <c r="F60" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K60" s="29" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L60" s="38" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -6594,14 +6639,14 @@
         <v>34</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E61" s="26"/>
       <c r="F61" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
@@ -6620,17 +6665,17 @@
         <v>12</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="29" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I62" s="29">
         <v>3</v>
@@ -6646,14 +6691,14 @@
         <v>14</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E63" s="26"/>
       <c r="F63" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
@@ -6668,25 +6713,25 @@
         <v>16</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
       <c r="J64" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K64" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L64" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6696,13 +6741,13 @@
         <v>49</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G65" s="26"/>
       <c r="H65" s="30"/>
@@ -6718,25 +6763,25 @@
         <v>50</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E66" s="26"/>
       <c r="F66" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
       <c r="J66" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K66" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L66" s="38" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6750,20 +6795,20 @@
         <v>12</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G67" s="26"/>
       <c r="H67" s="24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J67" s="29"/>
       <c r="K67" s="30"/>
@@ -6776,13 +6821,13 @@
         <v>52</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G68" s="26"/>
       <c r="H68" s="30"/>
@@ -6798,7 +6843,7 @@
         <v>53</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
@@ -6816,11 +6861,11 @@
         <v>54</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G70" s="26"/>
       <c r="H70" s="30"/>
@@ -6840,17 +6885,17 @@
         <v>19</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G71" s="26"/>
       <c r="H71" s="24" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I71" s="29">
         <v>3</v>
@@ -6866,14 +6911,14 @@
         <v>14</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
@@ -6888,25 +6933,25 @@
         <v>16</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H73" s="30"/>
       <c r="I73" s="30"/>
       <c r="J73" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K73" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -6916,14 +6961,14 @@
         <v>56</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E74" s="26"/>
       <c r="F74" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H74" s="30"/>
       <c r="I74" s="30"/>
@@ -6938,22 +6983,22 @@
         <v>23</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H75" s="30"/>
       <c r="I75" s="30"/>
       <c r="J75" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K75" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L75" s="38"/>
     </row>
@@ -6964,14 +7009,14 @@
         <v>24</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H76" s="30"/>
       <c r="I76" s="30"/>
@@ -6990,20 +7035,20 @@
         <v>12</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G77" s="26"/>
       <c r="H77" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J77" s="29"/>
       <c r="K77" s="30"/>
@@ -7016,14 +7061,14 @@
         <v>14</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E78" s="26"/>
       <c r="F78" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H78" s="30"/>
       <c r="I78" s="30"/>
@@ -7040,7 +7085,7 @@
       <c r="D79" s="32"/>
       <c r="E79" s="26"/>
       <c r="F79" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G79" s="26"/>
       <c r="H79" s="30"/>
@@ -7056,14 +7101,14 @@
         <v>21</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E80" s="26"/>
       <c r="F80" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H80" s="30"/>
       <c r="I80" s="30"/>
@@ -7078,25 +7123,25 @@
         <v>16</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H81" s="30"/>
       <c r="I81" s="30"/>
       <c r="J81" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K81" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -7106,7 +7151,7 @@
         <v>59</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
@@ -7128,20 +7173,20 @@
         <v>12</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F83" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G83" s="26"/>
       <c r="H83" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I83" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J83" s="29"/>
       <c r="K83" s="30"/>
@@ -7156,7 +7201,7 @@
       <c r="D84" s="32"/>
       <c r="E84" s="26"/>
       <c r="F84" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G84" s="26"/>
       <c r="H84" s="30"/>
@@ -7172,14 +7217,14 @@
         <v>21</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E85" s="26"/>
       <c r="F85" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H85" s="30"/>
       <c r="I85" s="30"/>
@@ -7194,14 +7239,14 @@
         <v>14</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H86" s="30"/>
       <c r="I86" s="30"/>
@@ -7216,25 +7261,25 @@
         <v>16</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E87" s="26"/>
       <c r="F87" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H87" s="30"/>
       <c r="I87" s="30"/>
       <c r="J87" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K87" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L87" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -7246,7 +7291,7 @@
       <c r="D88" s="32"/>
       <c r="E88" s="26"/>
       <c r="F88" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G88" s="26"/>
       <c r="H88" s="30"/>
@@ -7262,7 +7307,7 @@
         <v>62</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
@@ -7286,14 +7331,14 @@
       <c r="D90" s="32"/>
       <c r="E90" s="26"/>
       <c r="F90" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G90" s="26"/>
       <c r="H90" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I90" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J90" s="29"/>
       <c r="K90" s="30"/>
@@ -7306,13 +7351,13 @@
         <v>12</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F91" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G91" s="26"/>
       <c r="H91" s="30"/>
@@ -7328,14 +7373,14 @@
         <v>21</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E92" s="26"/>
       <c r="F92" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H92" s="30"/>
       <c r="I92" s="30"/>
@@ -7350,14 +7395,14 @@
         <v>14</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E93" s="26"/>
       <c r="F93" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H93" s="30"/>
       <c r="I93" s="30"/>
@@ -7372,25 +7417,25 @@
         <v>16</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E94" s="26"/>
       <c r="F94" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H94" s="30"/>
       <c r="I94" s="30"/>
       <c r="J94" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K94" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L94" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -7402,7 +7447,7 @@
       <c r="D95" s="32"/>
       <c r="E95" s="26"/>
       <c r="F95" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G95" s="26"/>
       <c r="H95" s="30"/>
@@ -7418,11 +7463,11 @@
         <v>62</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E96" s="26"/>
       <c r="F96" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G96" s="26"/>
       <c r="H96" s="30"/>
@@ -7442,20 +7487,20 @@
         <v>12</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F97" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G97" s="26"/>
       <c r="H97" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I97" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J97" s="29"/>
       <c r="K97" s="30"/>
@@ -7470,7 +7515,7 @@
       <c r="D98" s="32"/>
       <c r="E98" s="26"/>
       <c r="F98" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G98" s="26"/>
       <c r="H98" s="30"/>
@@ -7486,14 +7531,14 @@
         <v>14</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H99" s="30"/>
       <c r="I99" s="30"/>
@@ -7508,25 +7553,25 @@
         <v>16</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H100" s="30"/>
       <c r="I100" s="30"/>
       <c r="J100" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K100" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L100" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -7556,17 +7601,17 @@
         <v>12</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F102" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G102" s="26"/>
       <c r="H102" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I102" s="29">
         <v>3</v>
@@ -7584,7 +7629,7 @@
       <c r="D103" s="32"/>
       <c r="E103" s="26"/>
       <c r="F103" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G103" s="26"/>
       <c r="H103" s="30"/>
@@ -7600,14 +7645,14 @@
         <v>21</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H104" s="30"/>
       <c r="I104" s="30"/>
@@ -7622,14 +7667,14 @@
         <v>14</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E105" s="26"/>
       <c r="F105" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H105" s="30"/>
       <c r="I105" s="30"/>
@@ -7644,25 +7689,25 @@
         <v>16</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E106" s="26"/>
       <c r="F106" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H106" s="30"/>
       <c r="I106" s="30"/>
       <c r="J106" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K106" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L106" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -7692,20 +7737,20 @@
         <v>12</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F108" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G108" s="26"/>
       <c r="H108" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I108" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J108" s="29"/>
       <c r="K108" s="30"/>
@@ -7718,14 +7763,14 @@
         <v>14</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E109" s="26"/>
       <c r="F109" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H109" s="30"/>
       <c r="I109" s="30"/>
@@ -7740,25 +7785,25 @@
         <v>16</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H110" s="30"/>
       <c r="I110" s="30"/>
       <c r="J110" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K110" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L110" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -7804,20 +7849,20 @@
         <v>12</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G113" s="26"/>
       <c r="H113" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I113" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J113" s="29"/>
       <c r="K113" s="30"/>
@@ -7830,14 +7875,14 @@
         <v>14</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E114" s="26"/>
       <c r="F114" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H114" s="30"/>
       <c r="I114" s="30"/>
@@ -7852,25 +7897,25 @@
         <v>16</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H115" s="30"/>
       <c r="I115" s="30"/>
       <c r="J115" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K115" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L115" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -7932,20 +7977,20 @@
         <v>12</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F119" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G119" s="26"/>
       <c r="H119" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I119" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J119" s="29"/>
       <c r="K119" s="30"/>
@@ -7960,7 +8005,7 @@
       <c r="D120" s="32"/>
       <c r="E120" s="26"/>
       <c r="F120" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G120" s="26"/>
       <c r="H120" s="30"/>
@@ -7993,10 +8038,10 @@
       </c>
       <c r="D122" s="32"/>
       <c r="E122" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F122" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G122" s="26"/>
       <c r="H122" s="30"/>
@@ -8012,14 +8057,14 @@
         <v>14</v>
       </c>
       <c r="D123" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E123" s="26"/>
       <c r="F123" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H123" s="30"/>
       <c r="I123" s="30"/>
@@ -8034,25 +8079,25 @@
         <v>16</v>
       </c>
       <c r="D124" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E124" s="26"/>
       <c r="F124" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H124" s="30"/>
       <c r="I124" s="30"/>
       <c r="J124" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K124" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L124" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -8064,7 +8109,7 @@
       <c r="D125" s="32"/>
       <c r="E125" s="26"/>
       <c r="F125" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G125" s="26"/>
       <c r="H125" s="30"/>
@@ -8082,7 +8127,7 @@
       <c r="D126" s="32"/>
       <c r="E126" s="26"/>
       <c r="F126" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G126" s="26"/>
       <c r="H126" s="30"/>
@@ -8100,7 +8145,7 @@
       <c r="D127" s="32"/>
       <c r="E127" s="26"/>
       <c r="F127" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G127" s="26"/>
       <c r="H127" s="30"/>
@@ -8118,7 +8163,7 @@
       <c r="D128" s="32"/>
       <c r="E128" s="26"/>
       <c r="F128" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G128" s="26"/>
       <c r="H128" s="30"/>
@@ -8136,7 +8181,7 @@
       <c r="D129" s="32"/>
       <c r="E129" s="26"/>
       <c r="F129" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G129" s="26"/>
       <c r="H129" s="30"/>
@@ -8154,7 +8199,7 @@
       <c r="D130" s="32"/>
       <c r="E130" s="26"/>
       <c r="F130" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G130" s="26"/>
       <c r="H130" s="30"/>
@@ -8172,7 +8217,7 @@
       <c r="D131" s="32"/>
       <c r="E131" s="26"/>
       <c r="F131" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G131" s="26"/>
       <c r="H131" s="30"/>
@@ -8190,7 +8235,7 @@
       <c r="D132" s="32"/>
       <c r="E132" s="26"/>
       <c r="F132" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G132" s="26"/>
       <c r="H132" s="30"/>
@@ -8210,17 +8255,17 @@
         <v>12</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F133" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G133" s="26"/>
       <c r="H133" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I133" s="29">
         <v>3</v>
@@ -8236,14 +8281,14 @@
         <v>14</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E134" s="26"/>
       <c r="F134" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H134" s="30"/>
       <c r="I134" s="30"/>
@@ -8258,14 +8303,14 @@
         <v>86</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E135" s="26"/>
       <c r="F135" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G135" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H135" s="30"/>
       <c r="I135" s="30"/>
@@ -8280,25 +8325,25 @@
         <v>16</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E136" s="26"/>
       <c r="F136" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G136" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H136" s="30"/>
       <c r="I136" s="30"/>
       <c r="J136" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K136" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -8316,10 +8361,10 @@
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
       <c r="H137" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I137" s="29" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J137" s="29"/>
       <c r="K137" s="30"/>
@@ -8334,7 +8379,7 @@
       <c r="D138" s="32"/>
       <c r="E138" s="26"/>
       <c r="F138" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G138" s="26"/>
       <c r="H138" s="30"/>
@@ -8350,13 +8395,13 @@
         <v>12</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F139" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G139" s="26"/>
       <c r="H139" s="30"/>
@@ -8374,7 +8419,7 @@
       <c r="D140" s="32"/>
       <c r="E140" s="26"/>
       <c r="F140" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G140" s="26"/>
       <c r="H140" s="30"/>
@@ -8391,10 +8436,10 @@
       </c>
       <c r="D141" s="32"/>
       <c r="E141" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F141" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G141" s="26"/>
       <c r="H141" s="30"/>
@@ -8414,17 +8459,17 @@
         <v>19</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F142" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G142" s="26"/>
       <c r="H142" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I142" s="29">
         <v>3</v>
@@ -8442,10 +8487,10 @@
       <c r="D143" s="32"/>
       <c r="E143" s="26"/>
       <c r="F143" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G143" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H143" s="30"/>
       <c r="I143" s="30"/>
@@ -8460,14 +8505,14 @@
         <v>21</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E144" s="26"/>
       <c r="F144" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G144" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H144" s="30"/>
       <c r="I144" s="30"/>
@@ -8482,25 +8527,25 @@
         <v>16</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E145" s="26"/>
       <c r="F145" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G145" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H145" s="30"/>
       <c r="I145" s="30"/>
       <c r="J145" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K145" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L145" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -8510,14 +8555,14 @@
         <v>86</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E146" s="26"/>
       <c r="F146" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G146" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H146" s="30"/>
       <c r="I146" s="30"/>
@@ -8532,14 +8577,14 @@
         <v>24</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E147" s="26"/>
       <c r="F147" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G147" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H147" s="30"/>
       <c r="I147" s="30"/>
@@ -8558,20 +8603,20 @@
         <v>19</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E148" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F148" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G148" s="26"/>
       <c r="H148" s="29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I148" s="29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J148" s="29"/>
       <c r="K148" s="30"/>
@@ -8584,25 +8629,25 @@
         <v>35</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E149" s="26"/>
       <c r="F149" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G149" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H149" s="30"/>
       <c r="I149" s="30"/>
       <c r="J149" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K149" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L149" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -8612,13 +8657,13 @@
         <v>17</v>
       </c>
       <c r="D150" s="32" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E150" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F150" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G150" s="26"/>
       <c r="H150" s="30"/>
@@ -8638,20 +8683,20 @@
         <v>12</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G151" s="26"/>
       <c r="H151" s="24" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I151" s="29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J151" s="29"/>
       <c r="K151" s="30"/>
@@ -8664,14 +8709,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E152" s="26"/>
       <c r="F152" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G152" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H152" s="30"/>
       <c r="I152" s="30"/>
@@ -8686,25 +8731,25 @@
         <v>16</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E153" s="26"/>
       <c r="F153" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G153" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H153" s="30"/>
       <c r="I153" s="30"/>
       <c r="J153" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K153" s="29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L153" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -8715,10 +8760,10 @@
       </c>
       <c r="D154" s="32"/>
       <c r="E154" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G154" s="26"/>
       <c r="H154" s="30"/>
@@ -8997,7 +9042,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -9005,17 +9050,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -9049,33 +9094,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -9085,7 +9130,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -9100,7 +9145,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B4" s="4">
         <v>7</v>
@@ -9115,7 +9160,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -9124,23 +9169,23 @@
         <v>650</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H5" s="4"/>
       <c r="J5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -9149,26 +9194,26 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B7" s="4">
         <v>361</v>
@@ -9181,12 +9226,12 @@
       <c r="F7" s="4"/>
       <c r="H7" s="4"/>
       <c r="K7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -9195,25 +9240,25 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H8" s="4"/>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -9222,25 +9267,25 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H9" s="4"/>
       <c r="K9" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B10" s="4">
         <v>11</v>
@@ -9253,12 +9298,12 @@
       <c r="F10" s="4"/>
       <c r="H10" s="4"/>
       <c r="K10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B11" s="4">
         <v>208</v>
@@ -9268,17 +9313,17 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F11" s="4"/>
       <c r="H11" s="4"/>
       <c r="K11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -9287,22 +9332,22 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G12" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H12" s="4"/>
       <c r="K12" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B13" s="4">
         <v>5</v>
@@ -9311,24 +9356,24 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K13" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -9337,12 +9382,12 @@
       <c r="F14" s="4"/>
       <c r="H14" s="4"/>
       <c r="K14" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -9351,12 +9396,12 @@
       <c r="F15" s="4"/>
       <c r="H15" s="4"/>
       <c r="K15" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -9365,12 +9410,12 @@
       <c r="F16" s="4"/>
       <c r="H16" s="4"/>
       <c r="K16" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -9379,12 +9424,12 @@
       <c r="F17" s="4"/>
       <c r="H17" s="4"/>
       <c r="K17" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -9393,12 +9438,12 @@
       <c r="F18" s="4"/>
       <c r="H18" s="4"/>
       <c r="K18" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -9407,12 +9452,12 @@
       <c r="F19" s="4"/>
       <c r="H19" s="4"/>
       <c r="K19" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -9421,12 +9466,12 @@
       <c r="F20" s="4"/>
       <c r="H20" s="4"/>
       <c r="K20" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -9435,12 +9480,12 @@
       <c r="F21" s="4"/>
       <c r="H21" s="4"/>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -9449,12 +9494,12 @@
       <c r="F22" s="4"/>
       <c r="H22" s="4"/>
       <c r="K22" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -9463,12 +9508,12 @@
       <c r="F23" s="4"/>
       <c r="H23" s="4"/>
       <c r="K23" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -9477,12 +9522,12 @@
       <c r="F24" s="4"/>
       <c r="H24" s="4"/>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -9491,12 +9536,12 @@
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -9505,42 +9550,42 @@
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="11:11">
       <c r="K28" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="11:11">
       <c r="K29" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="11:11">
       <c r="K30" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="11:11">
       <c r="K31" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
